--- a/SQL_Scripts/supp_gen_fields.xlsx
+++ b/SQL_Scripts/supp_gen_fields.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1626" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2355" uniqueCount="450">
   <si>
     <t>name</t>
   </si>
@@ -735,6 +735,72 @@
     <t>Sec_Address</t>
   </si>
   <si>
+    <t>ADDR_addressLine1</t>
+  </si>
+  <si>
+    <t>ADDR_addressLine2</t>
+  </si>
+  <si>
+    <t>ADDR_addressLine3</t>
+  </si>
+  <si>
+    <t>ADDR_addressLine4</t>
+  </si>
+  <si>
+    <t>ADDR_city</t>
+  </si>
+  <si>
+    <t>ADDR_country</t>
+  </si>
+  <si>
+    <t>ADDR_county</t>
+  </si>
+  <si>
+    <t>ADDR_postalCode</t>
+  </si>
+  <si>
+    <t>ADDR_startDate</t>
+  </si>
+  <si>
+    <t>ADDR_validationStatus</t>
+  </si>
+  <si>
+    <t>ADDR_newAddressIndicator</t>
+  </si>
+  <si>
+    <t>SEC_ADDR_addressLine1</t>
+  </si>
+  <si>
+    <t>SEC_ADDR_addressLine2</t>
+  </si>
+  <si>
+    <t>SEC_ADDR_addressLine3</t>
+  </si>
+  <si>
+    <t>SEC_ADDR_addressLine4</t>
+  </si>
+  <si>
+    <t>SEC_ADDR_city</t>
+  </si>
+  <si>
+    <t>SEC_ADDR_country</t>
+  </si>
+  <si>
+    <t>SEC_ADDR_county</t>
+  </si>
+  <si>
+    <t>SEC_ADDR_postalCode</t>
+  </si>
+  <si>
+    <t>SEC_ADDR_startDate</t>
+  </si>
+  <si>
+    <t>SEC_ADDR_validationStatus</t>
+  </si>
+  <si>
+    <t>SEC_ADDR_newAddressIndicator</t>
+  </si>
+  <si>
     <t>cherishedAddressHN</t>
   </si>
   <si>
@@ -772,13 +838,547 @@
   </si>
   <si>
     <t>RG23 7HB</t>
+  </si>
+  <si>
+    <t>ADDR_cherishedAddressHN</t>
+  </si>
+  <si>
+    <t>SEC_ADDR_cherishedAddressHN</t>
+  </si>
+  <si>
+    <t>Con_phoneNumber</t>
+  </si>
+  <si>
+    <t>Coninfo</t>
+  </si>
+  <si>
+    <t>CONINFO_phoneNumber</t>
+  </si>
+  <si>
+    <t>07000000001</t>
+  </si>
+  <si>
+    <t>Con_Email</t>
+  </si>
+  <si>
+    <t>Con_Mobile</t>
+  </si>
+  <si>
+    <t>CONINFO_emailAddress</t>
+  </si>
+  <si>
+    <t>CONINFO_mobileNumber</t>
+  </si>
+  <si>
+    <t>test@test.com</t>
+  </si>
+  <si>
+    <t>02000000001</t>
+  </si>
+  <si>
+    <t>GAD</t>
+  </si>
+  <si>
+    <t>GAD_confirmedOn</t>
+  </si>
+  <si>
+    <t>GAD_declarationDate</t>
+  </si>
+  <si>
+    <t>GAD_letterCode</t>
+  </si>
+  <si>
+    <t>GAD_method</t>
+  </si>
+  <si>
+    <t>GAD_reference</t>
+  </si>
+  <si>
+    <t>GAD_source</t>
+  </si>
+  <si>
+    <t>GAD_startDate</t>
+  </si>
+  <si>
+    <t>GAD_gadType</t>
+  </si>
+  <si>
+    <t>2014-12-08</t>
+  </si>
+  <si>
+    <t>11DDGA</t>
+  </si>
+  <si>
+    <t>Written</t>
+  </si>
+  <si>
+    <t>Rolling</t>
+  </si>
+  <si>
+    <t>DD</t>
+  </si>
+  <si>
+    <t>DD_accountName</t>
+  </si>
+  <si>
+    <t>DD_amount</t>
+  </si>
+  <si>
+    <t>DD_bankAccountNumber</t>
+  </si>
+  <si>
+    <t>DD_bankSortCode</t>
+  </si>
+  <si>
+    <t>DD_frequency</t>
+  </si>
+  <si>
+    <t>DD_product</t>
+  </si>
+  <si>
+    <t>DD_reference</t>
+  </si>
+  <si>
+    <t>DD_resCode</t>
+  </si>
+  <si>
+    <t>DD_source</t>
+  </si>
+  <si>
+    <t>DD_dataSource</t>
+  </si>
+  <si>
+    <t>DD_paymentDay</t>
+  </si>
+  <si>
+    <t>DD_startDate</t>
+  </si>
+  <si>
+    <t>DD_toBeGiftAided</t>
+  </si>
+  <si>
+    <t>DD_letterCodeGAD</t>
+  </si>
+  <si>
+    <t>DD_methodGAD</t>
+  </si>
+  <si>
+    <t>DD_motivation</t>
+  </si>
+  <si>
+    <t>DD_inMemoryName</t>
+  </si>
+  <si>
+    <t>DD_gadType</t>
+  </si>
+  <si>
+    <t>Mrs valid</t>
+  </si>
+  <si>
+    <t>050370</t>
+  </si>
+  <si>
+    <t>Annually</t>
+  </si>
+  <si>
+    <t>CRDD</t>
+  </si>
+  <si>
+    <t>RES003</t>
+  </si>
+  <si>
+    <t>ACTV</t>
+  </si>
+  <si>
+    <t>2020-12-08</t>
+  </si>
+  <si>
+    <t>11NUPOGAD</t>
+  </si>
+  <si>
+    <t>MEM</t>
+  </si>
+  <si>
+    <t>Meercat</t>
+  </si>
+  <si>
+    <t>bankAccountCodeCRUK</t>
+  </si>
+  <si>
+    <t>DD_bankAccountCodeCRUK</t>
+  </si>
+  <si>
+    <t>Don</t>
+  </si>
+  <si>
+    <t>Don_amount</t>
+  </si>
+  <si>
+    <t>Don_bankAccountCodeCRUK</t>
+  </si>
+  <si>
+    <t>Don_dataSource</t>
+  </si>
+  <si>
+    <t>Don_dateReceived</t>
+  </si>
+  <si>
+    <t>Don_donationType</t>
+  </si>
+  <si>
+    <t>Don_eventCode</t>
+  </si>
+  <si>
+    <t>Don_financialPaymentReference</t>
+  </si>
+  <si>
+    <t>Don_letterCode</t>
+  </si>
+  <si>
+    <t>Don_resCode</t>
+  </si>
+  <si>
+    <t>Don_paymentMethod</t>
+  </si>
+  <si>
+    <t>Don_paymentStatus</t>
+  </si>
+  <si>
+    <t>Don_personalGiftAid</t>
+  </si>
+  <si>
+    <t>Don_reasonNotGiftAid</t>
+  </si>
+  <si>
+    <t>Don_product</t>
+  </si>
+  <si>
+    <t>Don_source</t>
+  </si>
+  <si>
+    <t>Don_webPageId</t>
+  </si>
+  <si>
+    <t>Don_originatorPaymentID</t>
+  </si>
+  <si>
+    <t>Don_toBeGiftAided</t>
+  </si>
+  <si>
+    <t>Don_letterCodeGAD</t>
+  </si>
+  <si>
+    <t>Don_methodGAD</t>
+  </si>
+  <si>
+    <t>Don_motivation</t>
+  </si>
+  <si>
+    <t>Don_inMemoryName</t>
+  </si>
+  <si>
+    <t>Don_celebrantDataSource</t>
+  </si>
+  <si>
+    <t>Don_celebrantExternalReference</t>
+  </si>
+  <si>
+    <t>Don_gadType</t>
+  </si>
+  <si>
+    <t>Don_excludefromAgresso</t>
+  </si>
+  <si>
+    <t>Payment</t>
+  </si>
+  <si>
+    <t>N15YCO</t>
+  </si>
+  <si>
+    <t>09DTDNCC</t>
+  </si>
+  <si>
+    <t>Credit Card</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>ONLDON</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>CEL</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>paymentProviderTransactId</t>
+  </si>
+  <si>
+    <t>Don_paymentProviderTransactId</t>
+  </si>
+  <si>
+    <t>SuppPre</t>
+  </si>
+  <si>
+    <t>suppressionPreCode</t>
+  </si>
+  <si>
+    <t>SuppPre_endDate</t>
+  </si>
+  <si>
+    <t>SuppPre_startDate</t>
+  </si>
+  <si>
+    <t>SuppPre_suppressionPreCode</t>
+  </si>
+  <si>
+    <t>SuppPre_source</t>
+  </si>
+  <si>
+    <t>NTC</t>
+  </si>
+  <si>
+    <t>2030-12-08</t>
+  </si>
+  <si>
+    <t>Camp</t>
+  </si>
+  <si>
+    <t>Camp_campaignCode</t>
+  </si>
+  <si>
+    <t>Camp_contactedOn</t>
+  </si>
+  <si>
+    <t>Camp_outcome</t>
+  </si>
+  <si>
+    <t>Camp_versionCode</t>
+  </si>
+  <si>
+    <t>00CFA5</t>
+  </si>
+  <si>
+    <t>Passed</t>
+  </si>
+  <si>
+    <t>N13LRPCM1101</t>
+  </si>
+  <si>
+    <t>campaignRecipient</t>
+  </si>
+  <si>
+    <t>Camp_campaignRecipient</t>
+  </si>
+  <si>
+    <t>Act</t>
+  </si>
+  <si>
+    <t>Act_category</t>
+  </si>
+  <si>
+    <t>Act_endDate</t>
+  </si>
+  <si>
+    <t>Act_letterCode</t>
+  </si>
+  <si>
+    <t>Act_originatorActivityID</t>
+  </si>
+  <si>
+    <t>Corporate</t>
+  </si>
+  <si>
+    <t>EVT</t>
+  </si>
+  <si>
+    <t>EVT_eventCode</t>
+  </si>
+  <si>
+    <t>EVT_registrationNumber</t>
+  </si>
+  <si>
+    <t>EVT_entryType</t>
+  </si>
+  <si>
+    <t>EVT_entryFeeStatus</t>
+  </si>
+  <si>
+    <t>EVT_cancerType</t>
+  </si>
+  <si>
+    <t>EVT_fundraisingPageId</t>
+  </si>
+  <si>
+    <t>EVT_fundraisingPageType</t>
+  </si>
+  <si>
+    <t>EVT_fundraisingPageUrl</t>
+  </si>
+  <si>
+    <t>EVT_howHeardAbout</t>
+  </si>
+  <si>
+    <t>EVT_inviteSource</t>
+  </si>
+  <si>
+    <t>EVT_motivation</t>
+  </si>
+  <si>
+    <t>EVT_participationType</t>
+  </si>
+  <si>
+    <t>EVT_placeType</t>
+  </si>
+  <si>
+    <t>EVT_pledgeAmount</t>
+  </si>
+  <si>
+    <t>EVT_registered</t>
+  </si>
+  <si>
+    <t>EVT_registrationStatus</t>
+  </si>
+  <si>
+    <t>EVT_supporterRegistrationType</t>
+  </si>
+  <si>
+    <t>EVT_survivorshipActivities</t>
+  </si>
+  <si>
+    <t>EVT_runningNumber</t>
+  </si>
+  <si>
+    <t>EVT_groupName</t>
+  </si>
+  <si>
+    <t>EVT_groupRole</t>
+  </si>
+  <si>
+    <t>EVT_emergencyContactName</t>
+  </si>
+  <si>
+    <t>EVT_emergencyContactNumber</t>
+  </si>
+  <si>
+    <t>EVT_channel</t>
+  </si>
+  <si>
+    <t>EVT_source</t>
+  </si>
+  <si>
+    <t>N11RCK</t>
+  </si>
+  <si>
+    <t>Individual Organiser</t>
+  </si>
+  <si>
+    <t>Free of charge</t>
+  </si>
+  <si>
+    <t>Cancer Research UK's work</t>
+  </si>
+  <si>
+    <t>Just Giving</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>CR-UK event</t>
+  </si>
+  <si>
+    <t>Friends</t>
+  </si>
+  <si>
+    <t>Cancer Experience</t>
+  </si>
+  <si>
+    <t>Associate Sponsor</t>
+  </si>
+  <si>
+    <t>Guaranteed Place</t>
+  </si>
+  <si>
+    <t>Invited</t>
+  </si>
+  <si>
+    <t>Internal</t>
+  </si>
+  <si>
+    <t>Test Group</t>
+  </si>
+  <si>
+    <t>Group Member</t>
+  </si>
+  <si>
+    <t>TestEmergency</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>EVTPack</t>
+  </si>
+  <si>
+    <t>merchanProductCode</t>
+  </si>
+  <si>
+    <t>EVTPack_merchanProductCode</t>
+  </si>
+  <si>
+    <t>EVTPack_quantity</t>
+  </si>
+  <si>
+    <t>BMFONL</t>
+  </si>
+  <si>
+    <t>SO</t>
+  </si>
+  <si>
+    <t>SO_amount</t>
+  </si>
+  <si>
+    <t>SO_accountName</t>
+  </si>
+  <si>
+    <t>SO_bankAccountNumber</t>
+  </si>
+  <si>
+    <t>SO_bankSortCode</t>
+  </si>
+  <si>
+    <t>SO_crukBankAccountCode</t>
+  </si>
+  <si>
+    <t>SO_frequency</t>
+  </si>
+  <si>
+    <t>SO_reference</t>
+  </si>
+  <si>
+    <t>SO_source</t>
+  </si>
+  <si>
+    <t>SO_startDate</t>
+  </si>
+  <si>
+    <t>Quarterly</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -793,6 +1393,20 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="9.35"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -818,15 +1432,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1122,8 +1747,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H309"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1048576"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="B72" sqref="B72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6368,7 +6993,7 @@
   <dimension ref="A1:B214"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A43" sqref="A43:B54"/>
+      <selection activeCell="A153" sqref="A153:B161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6713,7 +7338,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" hidden="1">
       <c r="A43" s="1" t="s">
         <v>67</v>
       </c>
@@ -6721,7 +7346,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" hidden="1">
       <c r="A44" s="1" t="s">
         <v>67</v>
       </c>
@@ -6729,7 +7354,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" hidden="1">
       <c r="A45" s="1" t="s">
         <v>67</v>
       </c>
@@ -6737,7 +7362,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" hidden="1">
       <c r="A46" s="1" t="s">
         <v>67</v>
       </c>
@@ -6745,7 +7370,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" hidden="1">
       <c r="A47" s="1" t="s">
         <v>67</v>
       </c>
@@ -6753,7 +7378,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" hidden="1">
       <c r="A48" s="1" t="s">
         <v>67</v>
       </c>
@@ -6761,7 +7386,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" hidden="1">
       <c r="A49" s="1" t="s">
         <v>67</v>
       </c>
@@ -6769,7 +7394,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" hidden="1">
       <c r="A50" s="1" t="s">
         <v>67</v>
       </c>
@@ -6777,7 +7402,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" hidden="1">
       <c r="A51" s="1" t="s">
         <v>67</v>
       </c>
@@ -6785,7 +7410,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" hidden="1">
       <c r="A52" s="1" t="s">
         <v>67</v>
       </c>
@@ -6793,7 +7418,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" hidden="1">
       <c r="A53" s="1" t="s">
         <v>67</v>
       </c>
@@ -6801,7 +7426,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" hidden="1">
       <c r="A54" s="1" t="s">
         <v>67</v>
       </c>
@@ -7593,7 +8218,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="153" spans="1:2" hidden="1">
+    <row r="153" spans="1:2">
       <c r="A153" s="1" t="s">
         <v>167</v>
       </c>
@@ -7601,7 +8226,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="154" spans="1:2" hidden="1">
+    <row r="154" spans="1:2">
       <c r="A154" s="1" t="s">
         <v>167</v>
       </c>
@@ -7609,7 +8234,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="155" spans="1:2" hidden="1">
+    <row r="155" spans="1:2">
       <c r="A155" s="1" t="s">
         <v>167</v>
       </c>
@@ -7617,7 +8242,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="156" spans="1:2" hidden="1">
+    <row r="156" spans="1:2">
       <c r="A156" s="1" t="s">
         <v>167</v>
       </c>
@@ -7625,7 +8250,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="157" spans="1:2" hidden="1">
+    <row r="157" spans="1:2">
       <c r="A157" s="1" t="s">
         <v>167</v>
       </c>
@@ -7633,7 +8258,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="158" spans="1:2" hidden="1">
+    <row r="158" spans="1:2">
       <c r="A158" s="1" t="s">
         <v>167</v>
       </c>
@@ -7641,7 +8266,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="159" spans="1:2" hidden="1">
+    <row r="159" spans="1:2">
       <c r="A159" s="1" t="s">
         <v>167</v>
       </c>
@@ -7649,7 +8274,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="160" spans="1:2" hidden="1">
+    <row r="160" spans="1:2">
       <c r="A160" s="1" t="s">
         <v>167</v>
       </c>
@@ -7657,7 +8282,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="161" spans="1:2" hidden="1">
+    <row r="161" spans="1:2">
       <c r="A161" s="1" t="s">
         <v>167</v>
       </c>
@@ -8093,7 +8718,7 @@
   <autoFilter ref="A1:B214">
     <filterColumn colId="0">
       <filters>
-        <filter val="Address"/>
+        <filter val="StandingOrders"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -8104,15 +8729,15 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:F46"/>
+  <dimension ref="A1:F152"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23:B46"/>
+    <sheetView topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="F144" sqref="F144:F152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="50" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="38.85546875" bestFit="1" customWidth="1"/>
@@ -8142,11 +8767,11 @@
         <v>11</v>
       </c>
       <c r="D2" t="str">
-        <f t="shared" ref="D2:D23" si="0">"SUPP_"&amp;B2&amp;" VARCHAR2(100),"</f>
+        <f t="shared" ref="D2:D22" si="0">"SUPP_"&amp;B2&amp;" VARCHAR2(100),"</f>
         <v>SUPP_primaryExternalReferenceId VARCHAR2(100),</v>
       </c>
       <c r="F2" t="str">
-        <f t="shared" ref="F2:F23" si="1">"SUPP_"&amp;B2</f>
+        <f t="shared" ref="F2:F22" si="1">"SUPP_"&amp;B2</f>
         <v>SUPP_primaryExternalReferenceId</v>
       </c>
     </row>
@@ -8498,7 +9123,7 @@
         <v>ADDR_addressLine2 VARCHAR2(100),</v>
       </c>
       <c r="F24" t="str">
-        <f t="shared" ref="F24:F35" si="3">"ADDR_"&amp;B24</f>
+        <f t="shared" ref="F24:F34" si="3">"ADDR_"&amp;B24</f>
         <v>ADDR_addressLine2</v>
       </c>
     </row>
@@ -8539,7 +9164,7 @@
         <v>67</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>237</v>
+        <v>259</v>
       </c>
       <c r="D27" t="str">
         <f t="shared" si="2"/>
@@ -8686,11 +9311,11 @@
         <v>70</v>
       </c>
       <c r="D36" t="str">
-        <f t="shared" ref="D36:D46" si="4">"SEC_ADDR_"&amp;B36&amp;" VARCHAR2(100),"</f>
+        <f t="shared" ref="D36:D47" si="4">"SEC_ADDR_"&amp;B36&amp;" VARCHAR2(100),"</f>
         <v>SEC_ADDR_addressLine2 VARCHAR2(100),</v>
       </c>
       <c r="F36" t="str">
-        <f t="shared" ref="F36:F46" si="5">"SEC_ADDR_"&amp;B36</f>
+        <f t="shared" ref="F36:F47" si="5">"SEC_ADDR_"&amp;B36</f>
         <v>SEC_ADDR_addressLine2</v>
       </c>
     </row>
@@ -8731,7 +9356,7 @@
         <v>236</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>237</v>
+        <v>259</v>
       </c>
       <c r="D39" t="str">
         <f t="shared" si="4"/>
@@ -8854,24 +9479,1730 @@
         <v>SEC_ADDR_newAddressIndicator</v>
       </c>
     </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D47" t="str">
+        <f>"CONINFO_"&amp;B47&amp;" VARCHAR2(100),"</f>
+        <v>CONINFO_phoneNumber VARCHAR2(100),</v>
+      </c>
+      <c r="F47" t="str">
+        <f>"CONINFO_"&amp;B47</f>
+        <v>CONINFO_phoneNumber</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D48" t="str">
+        <f t="shared" ref="D48:D57" si="6">"CONINFO_"&amp;B48&amp;" VARCHAR2(100),"</f>
+        <v>CONINFO_emailAddress VARCHAR2(100),</v>
+      </c>
+      <c r="F48" t="str">
+        <f t="shared" ref="F48:F50" si="7">"CONINFO_"&amp;B48</f>
+        <v>CONINFO_emailAddress</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" s="5" customFormat="1">
+      <c r="A49" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D49" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>CONINFO_mobileNumber VARCHAR2(100),</v>
+      </c>
+      <c r="F49" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>CONINFO_mobileNumber</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D50" s="6" t="str">
+        <f>A50&amp;"_"&amp;B50&amp;" VARCHAR2(100),"</f>
+        <v>GAD_confirmedOn VARCHAR2(100),</v>
+      </c>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6" t="str">
+        <f>A50&amp;"_"&amp;B50</f>
+        <v>GAD_confirmedOn</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D51" s="6" t="str">
+        <f t="shared" ref="D51:D114" si="8">A51&amp;"_"&amp;B51&amp;" VARCHAR2(100),"</f>
+        <v>GAD_declarationDate VARCHAR2(100),</v>
+      </c>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6" t="str">
+        <f t="shared" ref="F51:F114" si="9">A51&amp;"_"&amp;B51</f>
+        <v>GAD_declarationDate</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D52" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>GAD_letterCode VARCHAR2(100),</v>
+      </c>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v>GAD_letterCode</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D53" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>GAD_method VARCHAR2(100),</v>
+      </c>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v>GAD_method</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D54" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>GAD_reference VARCHAR2(100),</v>
+      </c>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v>GAD_reference</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D55" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>GAD_source VARCHAR2(100),</v>
+      </c>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v>GAD_source</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D56" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>GAD_startDate VARCHAR2(100),</v>
+      </c>
+      <c r="E56" s="6"/>
+      <c r="F56" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v>GAD_startDate</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D57" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>GAD_gadType VARCHAR2(100),</v>
+      </c>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v>GAD_gadType</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D58" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>DD_accountName VARCHAR2(100),</v>
+      </c>
+      <c r="F58" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v>DD_accountName</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D59" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>DD_amount VARCHAR2(100),</v>
+      </c>
+      <c r="F59" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v>DD_amount</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D60" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>DD_bankAccountNumber VARCHAR2(100),</v>
+      </c>
+      <c r="F60" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v>DD_bankAccountNumber</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D61" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>DD_bankSortCode VARCHAR2(100),</v>
+      </c>
+      <c r="F61" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v>DD_bankSortCode</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="D62" s="6" t="str">
+        <f>A62&amp;"_"&amp;B62&amp;" VARCHAR2(100),"</f>
+        <v>DD_bankAccountCodeCRUK VARCHAR2(100),</v>
+      </c>
+      <c r="F62" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v>DD_bankAccountCodeCRUK</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D63" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>DD_frequency VARCHAR2(100),</v>
+      </c>
+      <c r="F63" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v>DD_frequency</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D64" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>DD_product VARCHAR2(100),</v>
+      </c>
+      <c r="F64" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v>DD_product</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D65" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>DD_reference VARCHAR2(100),</v>
+      </c>
+      <c r="F65" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v>DD_reference</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D66" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>DD_resCode VARCHAR2(100),</v>
+      </c>
+      <c r="F66" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v>DD_resCode</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D67" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>DD_source VARCHAR2(100),</v>
+      </c>
+      <c r="F67" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v>DD_source</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D68" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>DD_dataSource VARCHAR2(100),</v>
+      </c>
+      <c r="F68" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v>DD_dataSource</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D69" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>DD_paymentDay VARCHAR2(100),</v>
+      </c>
+      <c r="F69" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v>DD_paymentDay</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D70" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>DD_startDate VARCHAR2(100),</v>
+      </c>
+      <c r="F70" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v>DD_startDate</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D71" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>DD_toBeGiftAided VARCHAR2(100),</v>
+      </c>
+      <c r="F71" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v>DD_toBeGiftAided</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D72" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>DD_letterCodeGAD VARCHAR2(100),</v>
+      </c>
+      <c r="F72" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v>DD_letterCodeGAD</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D73" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>DD_methodGAD VARCHAR2(100),</v>
+      </c>
+      <c r="F73" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v>DD_methodGAD</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D74" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>DD_motivation VARCHAR2(100),</v>
+      </c>
+      <c r="F74" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v>DD_motivation</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D75" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>DD_inMemoryName VARCHAR2(100),</v>
+      </c>
+      <c r="F75" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v>DD_inMemoryName</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D76" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>DD_gadType VARCHAR2(100),</v>
+      </c>
+      <c r="F76" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v>DD_gadType</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D77" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>Don_amount VARCHAR2(100),</v>
+      </c>
+      <c r="F77" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v>Don_amount</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="D78" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>Don_bankAccountCodeCRUK VARCHAR2(100),</v>
+      </c>
+      <c r="F78" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v>Don_bankAccountCodeCRUK</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D79" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>Don_dataSource VARCHAR2(100),</v>
+      </c>
+      <c r="F79" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v>Don_dataSource</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D80" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>Don_dateReceived VARCHAR2(100),</v>
+      </c>
+      <c r="F80" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v>Don_dateReceived</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D81" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>Don_donationType VARCHAR2(100),</v>
+      </c>
+      <c r="F81" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v>Don_donationType</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D82" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>Don_eventCode VARCHAR2(100),</v>
+      </c>
+      <c r="F82" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v>Don_eventCode</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D83" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>Don_financialPaymentReference VARCHAR2(100),</v>
+      </c>
+      <c r="F83" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v>Don_financialPaymentReference</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D84" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>Don_letterCode VARCHAR2(100),</v>
+      </c>
+      <c r="F84" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v>Don_letterCode</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D85" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>Don_resCode VARCHAR2(100),</v>
+      </c>
+      <c r="F85" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v>Don_resCode</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D86" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>Don_paymentMethod VARCHAR2(100),</v>
+      </c>
+      <c r="F86" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v>Don_paymentMethod</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D87" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>Don_paymentStatus VARCHAR2(100),</v>
+      </c>
+      <c r="F87" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v>Don_paymentStatus</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D88" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>Don_personalGiftAid VARCHAR2(100),</v>
+      </c>
+      <c r="F88" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v>Don_personalGiftAid</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D89" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>Don_reasonNotGiftAid VARCHAR2(100),</v>
+      </c>
+      <c r="F89" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v>Don_reasonNotGiftAid</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D90" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>Don_product VARCHAR2(100),</v>
+      </c>
+      <c r="F90" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v>Don_product</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D91" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>Don_source VARCHAR2(100),</v>
+      </c>
+      <c r="F91" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v>Don_source</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D92" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>Don_webPageId VARCHAR2(100),</v>
+      </c>
+      <c r="F92" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v>Don_webPageId</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D93" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>Don_originatorPaymentID VARCHAR2(100),</v>
+      </c>
+      <c r="F93" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v>Don_originatorPaymentID</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D94" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>Don_toBeGiftAided VARCHAR2(100),</v>
+      </c>
+      <c r="F94" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v>Don_toBeGiftAided</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D95" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>Don_letterCodeGAD VARCHAR2(100),</v>
+      </c>
+      <c r="F95" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v>Don_letterCodeGAD</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D96" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>Don_methodGAD VARCHAR2(100),</v>
+      </c>
+      <c r="F96" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v>Don_methodGAD</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D97" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>Don_motivation VARCHAR2(100),</v>
+      </c>
+      <c r="F97" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v>Don_motivation</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D98" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>Don_inMemoryName VARCHAR2(100),</v>
+      </c>
+      <c r="F98" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v>Don_inMemoryName</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D99" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>Don_celebrantDataSource VARCHAR2(100),</v>
+      </c>
+      <c r="F99" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v>Don_celebrantDataSource</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D100" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>Don_celebrantExternalReference VARCHAR2(100),</v>
+      </c>
+      <c r="F100" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v>Don_celebrantExternalReference</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="D101" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>Don_paymentProviderTransactId VARCHAR2(100),</v>
+      </c>
+      <c r="F101" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v>Don_paymentProviderTransactId</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D102" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>Don_gadType VARCHAR2(100),</v>
+      </c>
+      <c r="F102" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v>Don_gadType</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D103" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>Don_excludefromAgresso VARCHAR2(100),</v>
+      </c>
+      <c r="F103" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v>Don_excludefromAgresso</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D104" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>SuppPre_endDate VARCHAR2(100),</v>
+      </c>
+      <c r="F104" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v>SuppPre_endDate</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D105" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>SuppPre_startDate VARCHAR2(100),</v>
+      </c>
+      <c r="F105" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v>SuppPre_startDate</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="D106" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>SuppPre_suppressionPreCode VARCHAR2(100),</v>
+      </c>
+      <c r="F106" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v>SuppPre_suppressionPreCode</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D107" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>SuppPre_source VARCHAR2(100),</v>
+      </c>
+      <c r="F107" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v>SuppPre_source</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D108" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>Camp_campaignCode VARCHAR2(100),</v>
+      </c>
+      <c r="F108" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v>Camp_campaignCode</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D109" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>Camp_contactedOn VARCHAR2(100),</v>
+      </c>
+      <c r="F109" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v>Camp_contactedOn</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D110" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>Camp_outcome VARCHAR2(100),</v>
+      </c>
+      <c r="F110" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v>Camp_outcome</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D111" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>Camp_versionCode VARCHAR2(100),</v>
+      </c>
+      <c r="F111" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v>Camp_versionCode</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="D112" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>Camp_campaignRecipient VARCHAR2(100),</v>
+      </c>
+      <c r="F112" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v>Camp_campaignRecipient</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D113" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>Act_category VARCHAR2(100),</v>
+      </c>
+      <c r="F113" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v>Act_category</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D114" s="6" t="str">
+        <f t="shared" si="8"/>
+        <v>Act_endDate VARCHAR2(100),</v>
+      </c>
+      <c r="F114" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v>Act_endDate</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D115" s="6" t="str">
+        <f t="shared" ref="D115:D152" si="10">A115&amp;"_"&amp;B115&amp;" VARCHAR2(100),"</f>
+        <v>Act_letterCode VARCHAR2(100),</v>
+      </c>
+      <c r="F115" s="6" t="str">
+        <f t="shared" ref="F115:F152" si="11">A115&amp;"_"&amp;B115</f>
+        <v>Act_letterCode</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D116" s="6" t="str">
+        <f t="shared" si="10"/>
+        <v>Act_originatorActivityID VARCHAR2(100),</v>
+      </c>
+      <c r="F116" s="6" t="str">
+        <f t="shared" si="11"/>
+        <v>Act_originatorActivityID</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D117" s="6" t="str">
+        <f t="shared" si="10"/>
+        <v>EVT_eventCode VARCHAR2(100),</v>
+      </c>
+      <c r="F117" s="6" t="str">
+        <f t="shared" si="11"/>
+        <v>EVT_eventCode</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D118" s="6" t="str">
+        <f t="shared" si="10"/>
+        <v>EVT_registrationNumber VARCHAR2(100),</v>
+      </c>
+      <c r="F118" s="6" t="str">
+        <f t="shared" si="11"/>
+        <v>EVT_registrationNumber</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D119" s="6" t="str">
+        <f t="shared" si="10"/>
+        <v>EVT_entryType VARCHAR2(100),</v>
+      </c>
+      <c r="F119" s="6" t="str">
+        <f t="shared" si="11"/>
+        <v>EVT_entryType</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D120" s="6" t="str">
+        <f t="shared" si="10"/>
+        <v>EVT_entryFeeStatus VARCHAR2(100),</v>
+      </c>
+      <c r="F120" s="6" t="str">
+        <f t="shared" si="11"/>
+        <v>EVT_entryFeeStatus</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D121" s="6" t="str">
+        <f t="shared" si="10"/>
+        <v>EVT_cancerType VARCHAR2(100),</v>
+      </c>
+      <c r="F121" s="6" t="str">
+        <f t="shared" si="11"/>
+        <v>EVT_cancerType</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D122" s="6" t="str">
+        <f t="shared" si="10"/>
+        <v>EVT_fundraisingPageId VARCHAR2(100),</v>
+      </c>
+      <c r="F122" s="6" t="str">
+        <f t="shared" si="11"/>
+        <v>EVT_fundraisingPageId</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D123" s="6" t="str">
+        <f t="shared" si="10"/>
+        <v>EVT_fundraisingPageType VARCHAR2(100),</v>
+      </c>
+      <c r="F123" s="6" t="str">
+        <f t="shared" si="11"/>
+        <v>EVT_fundraisingPageType</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D124" s="6" t="str">
+        <f t="shared" si="10"/>
+        <v>EVT_fundraisingPageUrl VARCHAR2(100),</v>
+      </c>
+      <c r="F124" s="6" t="str">
+        <f t="shared" si="11"/>
+        <v>EVT_fundraisingPageUrl</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D125" s="6" t="str">
+        <f t="shared" si="10"/>
+        <v>EVT_howHeardAbout VARCHAR2(100),</v>
+      </c>
+      <c r="F125" s="6" t="str">
+        <f t="shared" si="11"/>
+        <v>EVT_howHeardAbout</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D126" s="6" t="str">
+        <f t="shared" si="10"/>
+        <v>EVT_inviteSource VARCHAR2(100),</v>
+      </c>
+      <c r="F126" s="6" t="str">
+        <f t="shared" si="11"/>
+        <v>EVT_inviteSource</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D127" s="6" t="str">
+        <f t="shared" si="10"/>
+        <v>EVT_motivation VARCHAR2(100),</v>
+      </c>
+      <c r="F127" s="6" t="str">
+        <f t="shared" si="11"/>
+        <v>EVT_motivation</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
+      <c r="A128" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D128" s="6" t="str">
+        <f t="shared" si="10"/>
+        <v>EVT_participationType VARCHAR2(100),</v>
+      </c>
+      <c r="F128" s="6" t="str">
+        <f t="shared" si="11"/>
+        <v>EVT_participationType</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
+      <c r="A129" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D129" s="6" t="str">
+        <f t="shared" si="10"/>
+        <v>EVT_placeType VARCHAR2(100),</v>
+      </c>
+      <c r="F129" s="6" t="str">
+        <f t="shared" si="11"/>
+        <v>EVT_placeType</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="A130" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D130" s="6" t="str">
+        <f t="shared" si="10"/>
+        <v>EVT_pledgeAmount VARCHAR2(100),</v>
+      </c>
+      <c r="F130" s="6" t="str">
+        <f t="shared" si="11"/>
+        <v>EVT_pledgeAmount</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
+      <c r="A131" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D131" s="6" t="str">
+        <f t="shared" si="10"/>
+        <v>EVT_registered VARCHAR2(100),</v>
+      </c>
+      <c r="F131" s="6" t="str">
+        <f t="shared" si="11"/>
+        <v>EVT_registered</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="A132" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D132" s="6" t="str">
+        <f t="shared" si="10"/>
+        <v>EVT_registrationStatus VARCHAR2(100),</v>
+      </c>
+      <c r="F132" s="6" t="str">
+        <f t="shared" si="11"/>
+        <v>EVT_registrationStatus</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
+      <c r="A133" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D133" s="6" t="str">
+        <f t="shared" si="10"/>
+        <v>EVT_supporterRegistrationType VARCHAR2(100),</v>
+      </c>
+      <c r="F133" s="6" t="str">
+        <f t="shared" si="11"/>
+        <v>EVT_supporterRegistrationType</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
+      <c r="A134" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D134" s="6" t="str">
+        <f t="shared" si="10"/>
+        <v>EVT_survivorshipActivities VARCHAR2(100),</v>
+      </c>
+      <c r="F134" s="6" t="str">
+        <f t="shared" si="11"/>
+        <v>EVT_survivorshipActivities</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
+      <c r="A135" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D135" s="6" t="str">
+        <f t="shared" si="10"/>
+        <v>EVT_runningNumber VARCHAR2(100),</v>
+      </c>
+      <c r="F135" s="6" t="str">
+        <f t="shared" si="11"/>
+        <v>EVT_runningNumber</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
+      <c r="A136" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D136" s="6" t="str">
+        <f t="shared" si="10"/>
+        <v>EVT_groupName VARCHAR2(100),</v>
+      </c>
+      <c r="F136" s="6" t="str">
+        <f t="shared" si="11"/>
+        <v>EVT_groupName</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
+      <c r="A137" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D137" s="6" t="str">
+        <f t="shared" si="10"/>
+        <v>EVT_groupRole VARCHAR2(100),</v>
+      </c>
+      <c r="F137" s="6" t="str">
+        <f t="shared" si="11"/>
+        <v>EVT_groupRole</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
+      <c r="A138" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D138" s="6" t="str">
+        <f t="shared" si="10"/>
+        <v>EVT_emergencyContactName VARCHAR2(100),</v>
+      </c>
+      <c r="F138" s="6" t="str">
+        <f t="shared" si="11"/>
+        <v>EVT_emergencyContactName</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
+      <c r="A139" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D139" s="6" t="str">
+        <f t="shared" si="10"/>
+        <v>EVT_emergencyContactNumber VARCHAR2(100),</v>
+      </c>
+      <c r="F139" s="6" t="str">
+        <f t="shared" si="11"/>
+        <v>EVT_emergencyContactNumber</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
+      <c r="A140" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D140" s="6" t="str">
+        <f t="shared" si="10"/>
+        <v>EVT_channel VARCHAR2(100),</v>
+      </c>
+      <c r="F140" s="6" t="str">
+        <f t="shared" si="11"/>
+        <v>EVT_channel</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6">
+      <c r="A141" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D141" s="6" t="str">
+        <f t="shared" si="10"/>
+        <v>EVT_source VARCHAR2(100),</v>
+      </c>
+      <c r="F141" s="6" t="str">
+        <f t="shared" si="11"/>
+        <v>EVT_source</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6">
+      <c r="A142" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="D142" s="6" t="str">
+        <f t="shared" si="10"/>
+        <v>EVTPack_merchanProductCode VARCHAR2(100),</v>
+      </c>
+      <c r="F142" s="6" t="str">
+        <f t="shared" si="11"/>
+        <v>EVTPack_merchanProductCode</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
+      <c r="A143" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="B143" t="s">
+        <v>166</v>
+      </c>
+      <c r="D143" s="6" t="str">
+        <f t="shared" si="10"/>
+        <v>EVTPack_quantity VARCHAR2(100),</v>
+      </c>
+      <c r="F143" s="6" t="str">
+        <f t="shared" si="11"/>
+        <v>EVTPack_quantity</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
+      <c r="A144" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D144" s="6" t="str">
+        <f t="shared" si="10"/>
+        <v>SO_amount VARCHAR2(100),</v>
+      </c>
+      <c r="F144" s="6" t="str">
+        <f t="shared" si="11"/>
+        <v>SO_amount</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6">
+      <c r="A145" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D145" s="6" t="str">
+        <f t="shared" si="10"/>
+        <v>SO_accountName VARCHAR2(100),</v>
+      </c>
+      <c r="F145" s="6" t="str">
+        <f t="shared" si="11"/>
+        <v>SO_accountName</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6">
+      <c r="A146" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D146" s="6" t="str">
+        <f t="shared" si="10"/>
+        <v>SO_bankAccountNumber VARCHAR2(100),</v>
+      </c>
+      <c r="F146" s="6" t="str">
+        <f t="shared" si="11"/>
+        <v>SO_bankAccountNumber</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6">
+      <c r="A147" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D147" s="6" t="str">
+        <f t="shared" si="10"/>
+        <v>SO_bankSortCode VARCHAR2(100),</v>
+      </c>
+      <c r="F147" s="6" t="str">
+        <f t="shared" si="11"/>
+        <v>SO_bankSortCode</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6">
+      <c r="A148" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D148" s="6" t="str">
+        <f t="shared" si="10"/>
+        <v>SO_crukBankAccountCode VARCHAR2(100),</v>
+      </c>
+      <c r="F148" s="6" t="str">
+        <f t="shared" si="11"/>
+        <v>SO_crukBankAccountCode</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6">
+      <c r="A149" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D149" s="6" t="str">
+        <f t="shared" si="10"/>
+        <v>SO_frequency VARCHAR2(100),</v>
+      </c>
+      <c r="F149" s="6" t="str">
+        <f t="shared" si="11"/>
+        <v>SO_frequency</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6">
+      <c r="A150" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D150" s="6" t="str">
+        <f t="shared" si="10"/>
+        <v>SO_reference VARCHAR2(100),</v>
+      </c>
+      <c r="F150" s="6" t="str">
+        <f t="shared" si="11"/>
+        <v>SO_reference</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6">
+      <c r="A151" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D151" s="6" t="str">
+        <f t="shared" si="10"/>
+        <v>SO_source VARCHAR2(100),</v>
+      </c>
+      <c r="F151" s="6" t="str">
+        <f t="shared" si="11"/>
+        <v>SO_source</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6">
+      <c r="A152" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D152" s="6" t="str">
+        <f t="shared" si="10"/>
+        <v>SO_startDate VARCHAR2(100),</v>
+      </c>
+      <c r="F152" s="6" t="str">
+        <f t="shared" si="11"/>
+        <v>SO_startDate</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F41"/>
+  <sheetPr codeName="Sheet4"/>
+  <dimension ref="A1:F147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" topLeftCell="A124" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A135" sqref="A135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="34.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="89.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -8907,7 +11238,7 @@
         <v>226</v>
       </c>
       <c r="F2" t="str">
-        <f t="shared" ref="F2:F41" si="0">" insert into DI_REF_DATA values ('"&amp;A2&amp;"','"&amp;B2&amp;"','"&amp;D2&amp;"');"</f>
+        <f t="shared" ref="F2:F65" si="0">" insert into DI_REF_DATA values ('"&amp;A2&amp;"','"&amp;B2&amp;"','"&amp;D2&amp;"');"</f>
         <v xml:space="preserve"> insert into DI_REF_DATA values ('Supporter','SUPP_primaryDataSourceCode','JG');</v>
       </c>
     </row>
@@ -9186,17 +11517,17 @@
         <v>67</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>68</v>
+        <v>237</v>
       </c>
       <c r="C18" t="s">
         <v>222</v>
       </c>
       <c r="D18" t="s">
-        <v>238</v>
+        <v>260</v>
       </c>
       <c r="F18" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> insert into DI_REF_DATA values ('Address','addressLine1','10 Culver Lane');</v>
+        <v xml:space="preserve"> insert into DI_REF_DATA values ('Address','ADDR_addressLine1','10 Culver Lane');</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -9204,17 +11535,17 @@
         <v>67</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>70</v>
+        <v>238</v>
       </c>
       <c r="C19" t="s">
         <v>222</v>
       </c>
       <c r="D19" t="s">
-        <v>240</v>
+        <v>262</v>
       </c>
       <c r="F19" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> insert into DI_REF_DATA values ('Address','addressLine2','Ship');</v>
+        <v xml:space="preserve"> insert into DI_REF_DATA values ('Address','ADDR_addressLine2','Ship');</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -9222,17 +11553,17 @@
         <v>67</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>71</v>
+        <v>239</v>
       </c>
       <c r="C20" t="s">
         <v>222</v>
       </c>
       <c r="D20" t="s">
-        <v>241</v>
+        <v>263</v>
       </c>
       <c r="F20" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> insert into DI_REF_DATA values ('Address','addressLine3','Cross');</v>
+        <v xml:space="preserve"> insert into DI_REF_DATA values ('Address','ADDR_addressLine3','Cross');</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -9240,17 +11571,17 @@
         <v>67</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>72</v>
+        <v>240</v>
       </c>
       <c r="C21" t="s">
         <v>222</v>
       </c>
       <c r="D21" t="s">
-        <v>239</v>
+        <v>261</v>
       </c>
       <c r="F21" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> insert into DI_REF_DATA values ('Address','addressLine4','Road');</v>
+        <v xml:space="preserve"> insert into DI_REF_DATA values ('Address','ADDR_addressLine4','Road');</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -9258,17 +11589,17 @@
         <v>67</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>237</v>
+        <v>272</v>
       </c>
       <c r="C22" t="s">
         <v>222</v>
       </c>
       <c r="D22" t="s">
-        <v>242</v>
+        <v>264</v>
       </c>
       <c r="F22" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> insert into DI_REF_DATA values ('Address','cherishedAddressHN','Main');</v>
+        <v xml:space="preserve"> insert into DI_REF_DATA values ('Address','ADDR_cherishedAddressHN','Main');</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -9276,17 +11607,17 @@
         <v>67</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>74</v>
+        <v>241</v>
       </c>
       <c r="C23" t="s">
         <v>222</v>
       </c>
       <c r="D23" t="s">
-        <v>243</v>
+        <v>265</v>
       </c>
       <c r="F23" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> insert into DI_REF_DATA values ('Address','city','Reading');</v>
+        <v xml:space="preserve"> insert into DI_REF_DATA values ('Address','ADDR_city','Reading');</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -9294,17 +11625,17 @@
         <v>67</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>75</v>
+        <v>242</v>
       </c>
       <c r="C24" t="s">
         <v>222</v>
       </c>
       <c r="D24" t="s">
-        <v>244</v>
+        <v>266</v>
       </c>
       <c r="F24" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> insert into DI_REF_DATA values ('Address','country','United Kingdom');</v>
+        <v xml:space="preserve"> insert into DI_REF_DATA values ('Address','ADDR_country','United Kingdom');</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -9312,17 +11643,17 @@
         <v>67</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>76</v>
+        <v>243</v>
       </c>
       <c r="C25" t="s">
         <v>222</v>
       </c>
       <c r="D25" t="s">
-        <v>245</v>
+        <v>267</v>
       </c>
       <c r="F25" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> insert into DI_REF_DATA values ('Address','county','Berkshire');</v>
+        <v xml:space="preserve"> insert into DI_REF_DATA values ('Address','ADDR_county','Berkshire');</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -9330,17 +11661,17 @@
         <v>67</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>77</v>
+        <v>244</v>
       </c>
       <c r="C26" t="s">
         <v>222</v>
       </c>
       <c r="D26" t="s">
-        <v>246</v>
+        <v>268</v>
       </c>
       <c r="F26" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> insert into DI_REF_DATA values ('Address','postalCode','RG45 7HB');</v>
+        <v xml:space="preserve"> insert into DI_REF_DATA values ('Address','ADDR_postalCode','RG45 7HB');</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -9348,7 +11679,7 @@
         <v>67</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>20</v>
+        <v>245</v>
       </c>
       <c r="C27" t="s">
         <v>222</v>
@@ -9358,7 +11689,7 @@
       </c>
       <c r="F27" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> insert into DI_REF_DATA values ('Address','startDate','2015-01-17');</v>
+        <v xml:space="preserve"> insert into DI_REF_DATA values ('Address','ADDR_startDate','2015-01-17');</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -9366,17 +11697,17 @@
         <v>67</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>78</v>
+        <v>246</v>
       </c>
       <c r="C28" t="s">
         <v>222</v>
       </c>
       <c r="D28" t="s">
-        <v>247</v>
+        <v>269</v>
       </c>
       <c r="F28" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> insert into DI_REF_DATA values ('Address','validationStatus','NV');</v>
+        <v xml:space="preserve"> insert into DI_REF_DATA values ('Address','ADDR_validationStatus','NV');</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -9384,7 +11715,7 @@
         <v>67</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>79</v>
+        <v>247</v>
       </c>
       <c r="C29" t="s">
         <v>222</v>
@@ -9394,7 +11725,7 @@
       </c>
       <c r="F29" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> insert into DI_REF_DATA values ('Address','newAddressIndicator','Y');</v>
+        <v xml:space="preserve"> insert into DI_REF_DATA values ('Address','ADDR_newAddressIndicator','Y');</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -9402,17 +11733,17 @@
         <v>236</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>68</v>
+        <v>248</v>
       </c>
       <c r="C30" t="s">
         <v>222</v>
       </c>
       <c r="D30" t="s">
-        <v>248</v>
+        <v>270</v>
       </c>
       <c r="F30" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> insert into DI_REF_DATA values ('Sec_Address','addressLine1','222 Beggerwood');</v>
+        <v xml:space="preserve"> insert into DI_REF_DATA values ('Sec_Address','SEC_ADDR_addressLine1','222 Beggerwood');</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -9420,17 +11751,17 @@
         <v>236</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>70</v>
+        <v>249</v>
       </c>
       <c r="C31" t="s">
         <v>222</v>
       </c>
       <c r="D31" t="s">
-        <v>240</v>
+        <v>262</v>
       </c>
       <c r="F31" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> insert into DI_REF_DATA values ('Sec_Address','addressLine2','Ship');</v>
+        <v xml:space="preserve"> insert into DI_REF_DATA values ('Sec_Address','SEC_ADDR_addressLine2','Ship');</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -9438,17 +11769,17 @@
         <v>236</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>71</v>
+        <v>250</v>
       </c>
       <c r="C32" t="s">
         <v>222</v>
       </c>
       <c r="D32" t="s">
-        <v>241</v>
+        <v>263</v>
       </c>
       <c r="F32" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> insert into DI_REF_DATA values ('Sec_Address','addressLine3','Cross');</v>
+        <v xml:space="preserve"> insert into DI_REF_DATA values ('Sec_Address','SEC_ADDR_addressLine3','Cross');</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -9456,17 +11787,17 @@
         <v>236</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>72</v>
+        <v>251</v>
       </c>
       <c r="C33" t="s">
         <v>222</v>
       </c>
       <c r="D33" t="s">
-        <v>239</v>
+        <v>261</v>
       </c>
       <c r="F33" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> insert into DI_REF_DATA values ('Sec_Address','addressLine4','Road');</v>
+        <v xml:space="preserve"> insert into DI_REF_DATA values ('Sec_Address','SEC_ADDR_addressLine4','Road');</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -9474,17 +11805,17 @@
         <v>236</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>237</v>
+        <v>273</v>
       </c>
       <c r="C34" t="s">
         <v>222</v>
       </c>
       <c r="D34" t="s">
-        <v>242</v>
+        <v>264</v>
       </c>
       <c r="F34" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> insert into DI_REF_DATA values ('Sec_Address','cherishedAddressHN','Main');</v>
+        <v xml:space="preserve"> insert into DI_REF_DATA values ('Sec_Address','SEC_ADDR_cherishedAddressHN','Main');</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -9492,17 +11823,17 @@
         <v>236</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>74</v>
+        <v>252</v>
       </c>
       <c r="C35" t="s">
         <v>222</v>
       </c>
       <c r="D35" t="s">
-        <v>243</v>
+        <v>265</v>
       </c>
       <c r="F35" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> insert into DI_REF_DATA values ('Sec_Address','city','Reading');</v>
+        <v xml:space="preserve"> insert into DI_REF_DATA values ('Sec_Address','SEC_ADDR_city','Reading');</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -9510,17 +11841,17 @@
         <v>236</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>75</v>
+        <v>253</v>
       </c>
       <c r="C36" t="s">
         <v>222</v>
       </c>
       <c r="D36" t="s">
-        <v>244</v>
+        <v>266</v>
       </c>
       <c r="F36" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> insert into DI_REF_DATA values ('Sec_Address','country','United Kingdom');</v>
+        <v xml:space="preserve"> insert into DI_REF_DATA values ('Sec_Address','SEC_ADDR_country','United Kingdom');</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -9528,17 +11859,17 @@
         <v>236</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>76</v>
+        <v>254</v>
       </c>
       <c r="C37" t="s">
         <v>222</v>
       </c>
       <c r="D37" t="s">
-        <v>245</v>
+        <v>267</v>
       </c>
       <c r="F37" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> insert into DI_REF_DATA values ('Sec_Address','county','Berkshire');</v>
+        <v xml:space="preserve"> insert into DI_REF_DATA values ('Sec_Address','SEC_ADDR_county','Berkshire');</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -9546,17 +11877,17 @@
         <v>236</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>77</v>
+        <v>255</v>
       </c>
       <c r="C38" t="s">
         <v>222</v>
       </c>
       <c r="D38" t="s">
-        <v>249</v>
+        <v>271</v>
       </c>
       <c r="F38" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> insert into DI_REF_DATA values ('Sec_Address','postalCode','RG23 7HB');</v>
+        <v xml:space="preserve"> insert into DI_REF_DATA values ('Sec_Address','SEC_ADDR_postalCode','RG23 7HB');</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -9564,7 +11895,7 @@
         <v>236</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>20</v>
+        <v>256</v>
       </c>
       <c r="C39" t="s">
         <v>222</v>
@@ -9574,7 +11905,7 @@
       </c>
       <c r="F39" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> insert into DI_REF_DATA values ('Sec_Address','startDate','2015-01-17');</v>
+        <v xml:space="preserve"> insert into DI_REF_DATA values ('Sec_Address','SEC_ADDR_startDate','2015-01-17');</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -9582,17 +11913,17 @@
         <v>236</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>78</v>
+        <v>257</v>
       </c>
       <c r="C40" t="s">
         <v>222</v>
       </c>
       <c r="D40" t="s">
-        <v>247</v>
+        <v>269</v>
       </c>
       <c r="F40" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> insert into DI_REF_DATA values ('Sec_Address','validationStatus','NV');</v>
+        <v xml:space="preserve"> insert into DI_REF_DATA values ('Sec_Address','SEC_ADDR_validationStatus','NV');</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -9600,7 +11931,7 @@
         <v>236</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>79</v>
+        <v>258</v>
       </c>
       <c r="C41" t="s">
         <v>222</v>
@@ -9610,21 +11941,1893 @@
       </c>
       <c r="F41" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> insert into DI_REF_DATA values ('Sec_Address','newAddressIndicator','Y');</v>
+        <v xml:space="preserve"> insert into DI_REF_DATA values ('Sec_Address','SEC_ADDR_newAddressIndicator','Y');</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B42" t="s">
+        <v>276</v>
+      </c>
+      <c r="C42" t="s">
+        <v>222</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="F42" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> insert into DI_REF_DATA values ('Coninfo','CONINFO_phoneNumber','02000000001');</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B43" t="s">
+        <v>280</v>
+      </c>
+      <c r="C43" t="s">
+        <v>222</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="F43" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> insert into DI_REF_DATA values ('Coninfo','CONINFO_emailAddress','test@test.com');</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" s="5" customFormat="1">
+      <c r="A44" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> insert into DI_REF_DATA values ('Coninfo','CONINFO_mobileNumber','07000000001');</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> insert into DI_REF_DATA values ('GAD','GAD_confirmedOn','2014-12-08');</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> insert into DI_REF_DATA values ('GAD','GAD_declarationDate','2014-12-08');</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> insert into DI_REF_DATA values ('GAD','GAD_letterCode','11DDGA');</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> insert into DI_REF_DATA values ('GAD','GAD_method','Written');</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> insert into DI_REF_DATA values ('GAD','GAD_reference','');</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> insert into DI_REF_DATA values ('GAD','GAD_source','E13DM1001');</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> insert into DI_REF_DATA values ('GAD','GAD_startDate','2014-12-08');</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> insert into DI_REF_DATA values ('GAD','GAD_gadType','Rolling');</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> insert into DI_REF_DATA values ('DD','DD_accountName','Mrs valid');</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="D54" s="6">
+        <v>99.99</v>
+      </c>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> insert into DI_REF_DATA values ('DD','DD_amount','99.99');</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="D55" s="6">
+        <v>43608868</v>
+      </c>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> insert into DI_REF_DATA values ('DD','DD_bankAccountNumber','43608868');</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="E56" s="6"/>
+      <c r="F56" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> insert into DI_REF_DATA values ('DD','DD_bankSortCode','050370');</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="D57" s="6">
+        <v>121</v>
+      </c>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> insert into DI_REF_DATA values ('DD','DD_bankAccountCodeCRUK','121');</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="E58" s="6"/>
+      <c r="F58" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> insert into DI_REF_DATA values ('DD','DD_frequency','Annually');</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="E59" s="6"/>
+      <c r="F59" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> insert into DI_REF_DATA values ('DD','DD_product','CRDD');</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="C60" s="6"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="6"/>
+      <c r="F60" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> insert into DI_REF_DATA values ('DD','DD_reference','');</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="E61" s="6"/>
+      <c r="F61" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> insert into DI_REF_DATA values ('DD','DD_resCode','RES003');</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="E62" s="6"/>
+      <c r="F62" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> insert into DI_REF_DATA values ('DD','DD_source','E13DM1001');</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="E63" s="6"/>
+      <c r="F63" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> insert into DI_REF_DATA values ('DD','DD_dataSource','ACTV');</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="D64" s="6">
+        <v>19</v>
+      </c>
+      <c r="E64" s="6"/>
+      <c r="F64" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> insert into DI_REF_DATA values ('DD','DD_paymentDay','19');</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="E65" s="6"/>
+      <c r="F65" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> insert into DI_REF_DATA values ('DD','DD_startDate','2020-12-08');</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="E66" s="6"/>
+      <c r="F66" s="6" t="str">
+        <f t="shared" ref="F66:F129" si="1">" insert into DI_REF_DATA values ('"&amp;A66&amp;"','"&amp;B66&amp;"','"&amp;D66&amp;"');"</f>
+        <v xml:space="preserve"> insert into DI_REF_DATA values ('DD','DD_toBeGiftAided','Y');</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="E67" s="6"/>
+      <c r="F67" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> insert into DI_REF_DATA values ('DD','DD_letterCodeGAD','11NUPOGAD');</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="E68" s="6"/>
+      <c r="F68" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> insert into DI_REF_DATA values ('DD','DD_methodGAD','Written');</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="E69" s="6"/>
+      <c r="F69" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> insert into DI_REF_DATA values ('DD','DD_motivation','MEM');</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="E70" s="6"/>
+      <c r="F70" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> insert into DI_REF_DATA values ('DD','DD_inMemoryName','Meercat');</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="E71" s="6"/>
+      <c r="F71" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> insert into DI_REF_DATA values ('DD','DD_gadType','Rolling');</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" t="s">
+        <v>328</v>
+      </c>
+      <c r="B72" t="s">
+        <v>329</v>
+      </c>
+      <c r="C72" t="s">
+        <v>222</v>
+      </c>
+      <c r="D72">
+        <v>9.99</v>
+      </c>
+      <c r="F72" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> insert into DI_REF_DATA values ('Don','Don_amount','9.99');</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" t="s">
+        <v>328</v>
+      </c>
+      <c r="B73" t="s">
+        <v>330</v>
+      </c>
+      <c r="C73" t="s">
+        <v>222</v>
+      </c>
+      <c r="D73">
+        <v>134</v>
+      </c>
+      <c r="F73" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> insert into DI_REF_DATA values ('Don','Don_bankAccountCodeCRUK','134');</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" t="s">
+        <v>328</v>
+      </c>
+      <c r="B74" t="s">
+        <v>331</v>
+      </c>
+      <c r="C74" t="s">
+        <v>222</v>
+      </c>
+      <c r="D74" t="s">
+        <v>321</v>
+      </c>
+      <c r="F74" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> insert into DI_REF_DATA values ('Don','Don_dataSource','ACTV');</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" t="s">
+        <v>328</v>
+      </c>
+      <c r="B75" t="s">
+        <v>332</v>
+      </c>
+      <c r="C75" t="s">
+        <v>222</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="F75" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> insert into DI_REF_DATA values ('Don','Don_dateReceived','2020-12-08');</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" t="s">
+        <v>328</v>
+      </c>
+      <c r="B76" t="s">
+        <v>333</v>
+      </c>
+      <c r="C76" t="s">
+        <v>222</v>
+      </c>
+      <c r="D76" t="s">
+        <v>355</v>
+      </c>
+      <c r="F76" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> insert into DI_REF_DATA values ('Don','Don_donationType','Payment');</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" t="s">
+        <v>328</v>
+      </c>
+      <c r="B77" t="s">
+        <v>334</v>
+      </c>
+      <c r="C77" t="s">
+        <v>222</v>
+      </c>
+      <c r="D77" t="s">
+        <v>356</v>
+      </c>
+      <c r="F77" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> insert into DI_REF_DATA values ('Don','Don_eventCode','N15YCO');</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" t="s">
+        <v>328</v>
+      </c>
+      <c r="B78" t="s">
+        <v>335</v>
+      </c>
+      <c r="F78" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> insert into DI_REF_DATA values ('Don','Don_financialPaymentReference','');</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" t="s">
+        <v>328</v>
+      </c>
+      <c r="B79" t="s">
+        <v>336</v>
+      </c>
+      <c r="C79" t="s">
+        <v>222</v>
+      </c>
+      <c r="D79" t="s">
+        <v>357</v>
+      </c>
+      <c r="F79" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> insert into DI_REF_DATA values ('Don','Don_letterCode','09DTDNCC');</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" t="s">
+        <v>328</v>
+      </c>
+      <c r="B80" t="s">
+        <v>337</v>
+      </c>
+      <c r="C80" t="s">
+        <v>222</v>
+      </c>
+      <c r="D80" t="s">
+        <v>320</v>
+      </c>
+      <c r="F80" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> insert into DI_REF_DATA values ('Don','Don_resCode','RES003');</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" t="s">
+        <v>328</v>
+      </c>
+      <c r="B81" t="s">
+        <v>338</v>
+      </c>
+      <c r="C81" t="s">
+        <v>222</v>
+      </c>
+      <c r="D81" t="s">
+        <v>358</v>
+      </c>
+      <c r="F81" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> insert into DI_REF_DATA values ('Don','Don_paymentMethod','Credit Card');</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" t="s">
+        <v>328</v>
+      </c>
+      <c r="B82" t="s">
+        <v>339</v>
+      </c>
+      <c r="C82" t="s">
+        <v>222</v>
+      </c>
+      <c r="D82" t="s">
+        <v>359</v>
+      </c>
+      <c r="F82" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> insert into DI_REF_DATA values ('Don','Don_paymentStatus','Completed');</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" t="s">
+        <v>328</v>
+      </c>
+      <c r="B83" t="s">
+        <v>340</v>
+      </c>
+      <c r="C83" t="s">
+        <v>222</v>
+      </c>
+      <c r="D83" t="s">
+        <v>231</v>
+      </c>
+      <c r="F83" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> insert into DI_REF_DATA values ('Don','Don_personalGiftAid','Y');</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" t="s">
+        <v>328</v>
+      </c>
+      <c r="B84" t="s">
+        <v>341</v>
+      </c>
+      <c r="C84" t="s">
+        <v>222</v>
+      </c>
+      <c r="D84" t="s">
+        <v>231</v>
+      </c>
+      <c r="F84" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> insert into DI_REF_DATA values ('Don','Don_reasonNotGiftAid','Y');</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" t="s">
+        <v>328</v>
+      </c>
+      <c r="B85" t="s">
+        <v>342</v>
+      </c>
+      <c r="C85" t="s">
+        <v>222</v>
+      </c>
+      <c r="D85" t="s">
+        <v>360</v>
+      </c>
+      <c r="F85" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> insert into DI_REF_DATA values ('Don','Don_product','ONLDON');</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" t="s">
+        <v>328</v>
+      </c>
+      <c r="B86" t="s">
+        <v>343</v>
+      </c>
+      <c r="C86" t="s">
+        <v>222</v>
+      </c>
+      <c r="D86" t="s">
+        <v>228</v>
+      </c>
+      <c r="F86" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> insert into DI_REF_DATA values ('Don','Don_source','E13DM1001');</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" t="s">
+        <v>328</v>
+      </c>
+      <c r="B87" t="s">
+        <v>344</v>
+      </c>
+      <c r="C87" t="s">
+        <v>222</v>
+      </c>
+      <c r="D87" t="s">
+        <v>361</v>
+      </c>
+      <c r="F87" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> insert into DI_REF_DATA values ('Don','Don_webPageId','url');</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" t="s">
+        <v>328</v>
+      </c>
+      <c r="B88" t="s">
+        <v>345</v>
+      </c>
+      <c r="F88" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> insert into DI_REF_DATA values ('Don','Don_originatorPaymentID','');</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" t="s">
+        <v>328</v>
+      </c>
+      <c r="B89" t="s">
+        <v>346</v>
+      </c>
+      <c r="C89" t="s">
+        <v>222</v>
+      </c>
+      <c r="D89" t="s">
+        <v>231</v>
+      </c>
+      <c r="F89" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> insert into DI_REF_DATA values ('Don','Don_toBeGiftAided','Y');</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" t="s">
+        <v>328</v>
+      </c>
+      <c r="B90" t="s">
+        <v>347</v>
+      </c>
+      <c r="C90" t="s">
+        <v>222</v>
+      </c>
+      <c r="D90" t="s">
+        <v>357</v>
+      </c>
+      <c r="F90" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> insert into DI_REF_DATA values ('Don','Don_letterCodeGAD','09DTDNCC');</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" t="s">
+        <v>328</v>
+      </c>
+      <c r="B91" t="s">
+        <v>348</v>
+      </c>
+      <c r="C91" t="s">
+        <v>222</v>
+      </c>
+      <c r="D91" t="s">
+        <v>295</v>
+      </c>
+      <c r="F91" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> insert into DI_REF_DATA values ('Don','Don_methodGAD','Written');</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" t="s">
+        <v>328</v>
+      </c>
+      <c r="B92" t="s">
+        <v>349</v>
+      </c>
+      <c r="C92" t="s">
+        <v>222</v>
+      </c>
+      <c r="D92" t="s">
+        <v>362</v>
+      </c>
+      <c r="F92" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> insert into DI_REF_DATA values ('Don','Don_motivation','CEL');</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" t="s">
+        <v>328</v>
+      </c>
+      <c r="B93" t="s">
+        <v>350</v>
+      </c>
+      <c r="C93" t="s">
+        <v>222</v>
+      </c>
+      <c r="D93" t="s">
+        <v>363</v>
+      </c>
+      <c r="F93" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> insert into DI_REF_DATA values ('Don','Don_inMemoryName','John');</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" t="s">
+        <v>328</v>
+      </c>
+      <c r="B94" t="s">
+        <v>351</v>
+      </c>
+      <c r="C94" t="s">
+        <v>222</v>
+      </c>
+      <c r="D94" t="s">
+        <v>321</v>
+      </c>
+      <c r="F94" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> insert into DI_REF_DATA values ('Don','Don_celebrantDataSource','ACTV');</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" t="s">
+        <v>328</v>
+      </c>
+      <c r="B95" t="s">
+        <v>352</v>
+      </c>
+      <c r="F95" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> insert into DI_REF_DATA values ('Don','Don_celebrantExternalReference','');</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" t="s">
+        <v>328</v>
+      </c>
+      <c r="B96" t="s">
+        <v>366</v>
+      </c>
+      <c r="F96" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> insert into DI_REF_DATA values ('Don','Don_paymentProviderTransactId','');</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" t="s">
+        <v>328</v>
+      </c>
+      <c r="B97" t="s">
+        <v>353</v>
+      </c>
+      <c r="C97" t="s">
+        <v>222</v>
+      </c>
+      <c r="D97" t="s">
+        <v>296</v>
+      </c>
+      <c r="F97" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> insert into DI_REF_DATA values ('Don','Don_gadType','Rolling');</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" t="s">
+        <v>328</v>
+      </c>
+      <c r="B98" t="s">
+        <v>354</v>
+      </c>
+      <c r="C98" t="s">
+        <v>222</v>
+      </c>
+      <c r="D98" t="s">
+        <v>364</v>
+      </c>
+      <c r="F98" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> insert into DI_REF_DATA values ('Don','Don_excludefromAgresso','N');</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="C99" t="s">
+        <v>222</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="F99" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> insert into DI_REF_DATA values ('SuppPre','SuppPre_endDate','2030-12-08');</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="C100" t="s">
+        <v>222</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="F100" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> insert into DI_REF_DATA values ('SuppPre','SuppPre_startDate','2020-12-08');</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="C101" t="s">
+        <v>222</v>
+      </c>
+      <c r="D101" t="s">
+        <v>373</v>
+      </c>
+      <c r="F101" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> insert into DI_REF_DATA values ('SuppPre','SuppPre_suppressionPreCode','NTC');</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B102" t="s">
+        <v>372</v>
+      </c>
+      <c r="C102" t="s">
+        <v>222</v>
+      </c>
+      <c r="D102" t="s">
+        <v>228</v>
+      </c>
+      <c r="F102" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> insert into DI_REF_DATA values ('SuppPre','SuppPre_source','E13DM1001');</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B103" t="s">
+        <v>376</v>
+      </c>
+      <c r="C103" t="s">
+        <v>222</v>
+      </c>
+      <c r="D103" t="s">
+        <v>380</v>
+      </c>
+      <c r="F103" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> insert into DI_REF_DATA values ('Camp','Camp_campaignCode','00CFA5');</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B104" t="s">
+        <v>377</v>
+      </c>
+      <c r="C104" t="s">
+        <v>222</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="F104" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> insert into DI_REF_DATA values ('Camp','Camp_contactedOn','2020-12-08');</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B105" t="s">
+        <v>378</v>
+      </c>
+      <c r="C105" t="s">
+        <v>222</v>
+      </c>
+      <c r="D105" t="s">
+        <v>381</v>
+      </c>
+      <c r="F105" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> insert into DI_REF_DATA values ('Camp','Camp_outcome','Passed');</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B106" t="s">
+        <v>379</v>
+      </c>
+      <c r="C106" t="s">
+        <v>222</v>
+      </c>
+      <c r="D106" t="s">
+        <v>382</v>
+      </c>
+      <c r="F106" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> insert into DI_REF_DATA values ('Camp','Camp_versionCode','N13LRPCM1101');</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B107" t="s">
+        <v>384</v>
+      </c>
+      <c r="F107" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> insert into DI_REF_DATA values ('Camp','Camp_campaignRecipient','');</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="B108" t="s">
+        <v>386</v>
+      </c>
+      <c r="C108" t="s">
+        <v>222</v>
+      </c>
+      <c r="D108" t="s">
+        <v>390</v>
+      </c>
+      <c r="F108" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> insert into DI_REF_DATA values ('Act','Act_category','Corporate');</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="B109" t="s">
+        <v>387</v>
+      </c>
+      <c r="C109" t="s">
+        <v>222</v>
+      </c>
+      <c r="D109" t="s">
+        <v>225</v>
+      </c>
+      <c r="F109" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> insert into DI_REF_DATA values ('Act','Act_endDate','2015-01-17T13:11:20');</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="B110" t="s">
+        <v>388</v>
+      </c>
+      <c r="C110" t="s">
+        <v>222</v>
+      </c>
+      <c r="D110" t="s">
+        <v>357</v>
+      </c>
+      <c r="F110" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> insert into DI_REF_DATA values ('Act','Act_letterCode','09DTDNCC');</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="B111" t="s">
+        <v>389</v>
+      </c>
+      <c r="F111" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> insert into DI_REF_DATA values ('Act','Act_originatorActivityID','');</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B112" t="s">
+        <v>392</v>
+      </c>
+      <c r="C112" t="s">
+        <v>222</v>
+      </c>
+      <c r="D112" t="s">
+        <v>417</v>
+      </c>
+      <c r="F112" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> insert into DI_REF_DATA values ('EVT','EVT_eventCode','N11RCK');</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B113" t="s">
+        <v>393</v>
+      </c>
+      <c r="F113" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> insert into DI_REF_DATA values ('EVT','EVT_registrationNumber','');</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B114" t="s">
+        <v>394</v>
+      </c>
+      <c r="C114" t="s">
+        <v>222</v>
+      </c>
+      <c r="D114" t="s">
+        <v>418</v>
+      </c>
+      <c r="F114" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> insert into DI_REF_DATA values ('EVT','EVT_entryType','Individual Organiser');</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B115" t="s">
+        <v>395</v>
+      </c>
+      <c r="C115" t="s">
+        <v>222</v>
+      </c>
+      <c r="D115" t="s">
+        <v>419</v>
+      </c>
+      <c r="F115" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> insert into DI_REF_DATA values ('EVT','EVT_entryFeeStatus','Free of charge');</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B116" t="s">
+        <v>396</v>
+      </c>
+      <c r="C116" t="s">
+        <v>222</v>
+      </c>
+      <c r="D116" t="s">
+        <v>420</v>
+      </c>
+      <c r="F116" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> insert into DI_REF_DATA values ('EVT','EVT_cancerType','Cancer Research UK's work');</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B117" t="s">
+        <v>397</v>
+      </c>
+      <c r="F117" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> insert into DI_REF_DATA values ('EVT','EVT_fundraisingPageId','');</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B118" t="s">
+        <v>398</v>
+      </c>
+      <c r="C118" t="s">
+        <v>222</v>
+      </c>
+      <c r="D118" t="s">
+        <v>421</v>
+      </c>
+      <c r="F118" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> insert into DI_REF_DATA values ('EVT','EVT_fundraisingPageType','Just Giving');</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B119" t="s">
+        <v>399</v>
+      </c>
+      <c r="C119" t="s">
+        <v>222</v>
+      </c>
+      <c r="D119" t="s">
+        <v>422</v>
+      </c>
+      <c r="F119" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> insert into DI_REF_DATA values ('EVT','EVT_fundraisingPageUrl','URL');</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B120" t="s">
+        <v>400</v>
+      </c>
+      <c r="C120" t="s">
+        <v>222</v>
+      </c>
+      <c r="D120" t="s">
+        <v>423</v>
+      </c>
+      <c r="F120" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> insert into DI_REF_DATA values ('EVT','EVT_howHeardAbout','CR-UK event');</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B121" t="s">
+        <v>401</v>
+      </c>
+      <c r="C121" t="s">
+        <v>222</v>
+      </c>
+      <c r="D121" t="s">
+        <v>424</v>
+      </c>
+      <c r="F121" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> insert into DI_REF_DATA values ('EVT','EVT_inviteSource','Friends');</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B122" t="s">
+        <v>402</v>
+      </c>
+      <c r="C122" t="s">
+        <v>222</v>
+      </c>
+      <c r="D122" t="s">
+        <v>425</v>
+      </c>
+      <c r="F122" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> insert into DI_REF_DATA values ('EVT','EVT_motivation','Cancer Experience');</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B123" t="s">
+        <v>403</v>
+      </c>
+      <c r="C123" t="s">
+        <v>222</v>
+      </c>
+      <c r="D123" t="s">
+        <v>426</v>
+      </c>
+      <c r="F123" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> insert into DI_REF_DATA values ('EVT','EVT_participationType','Associate Sponsor');</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B124" t="s">
+        <v>404</v>
+      </c>
+      <c r="C124" t="s">
+        <v>222</v>
+      </c>
+      <c r="D124" t="s">
+        <v>427</v>
+      </c>
+      <c r="F124" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> insert into DI_REF_DATA values ('EVT','EVT_placeType','Guaranteed Place');</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B125" t="s">
+        <v>405</v>
+      </c>
+      <c r="C125" t="s">
+        <v>222</v>
+      </c>
+      <c r="D125">
+        <v>9.99</v>
+      </c>
+      <c r="F125" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> insert into DI_REF_DATA values ('EVT','EVT_pledgeAmount','9.99');</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B126" t="s">
+        <v>406</v>
+      </c>
+      <c r="C126" t="s">
+        <v>222</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="F126" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> insert into DI_REF_DATA values ('EVT','EVT_registered','2020-12-08');</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B127" t="s">
+        <v>407</v>
+      </c>
+      <c r="C127" t="s">
+        <v>222</v>
+      </c>
+      <c r="D127" t="s">
+        <v>428</v>
+      </c>
+      <c r="F127" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> insert into DI_REF_DATA values ('EVT','EVT_registrationStatus','Invited');</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
+      <c r="A128" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B128" t="s">
+        <v>408</v>
+      </c>
+      <c r="C128" t="s">
+        <v>222</v>
+      </c>
+      <c r="D128" t="s">
+        <v>429</v>
+      </c>
+      <c r="F128" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> insert into DI_REF_DATA values ('EVT','EVT_supporterRegistrationType','Internal');</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
+      <c r="A129" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B129" t="s">
+        <v>409</v>
+      </c>
+      <c r="C129" t="s">
+        <v>222</v>
+      </c>
+      <c r="D129" t="s">
+        <v>231</v>
+      </c>
+      <c r="F129" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> insert into DI_REF_DATA values ('EVT','EVT_survivorshipActivities','Y');</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="A130" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B130" t="s">
+        <v>410</v>
+      </c>
+      <c r="F130" s="8" t="str">
+        <f t="shared" ref="F130:F147" si="2">" insert into DI_REF_DATA values ('"&amp;A130&amp;"','"&amp;B130&amp;"','"&amp;D130&amp;"');"</f>
+        <v xml:space="preserve"> insert into DI_REF_DATA values ('EVT','EVT_runningNumber','');</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
+      <c r="A131" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B131" t="s">
+        <v>411</v>
+      </c>
+      <c r="C131" t="s">
+        <v>222</v>
+      </c>
+      <c r="D131" t="s">
+        <v>430</v>
+      </c>
+      <c r="F131" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> insert into DI_REF_DATA values ('EVT','EVT_groupName','Test Group');</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="A132" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B132" t="s">
+        <v>412</v>
+      </c>
+      <c r="C132" t="s">
+        <v>222</v>
+      </c>
+      <c r="D132" t="s">
+        <v>431</v>
+      </c>
+      <c r="F132" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> insert into DI_REF_DATA values ('EVT','EVT_groupRole','Group Member');</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
+      <c r="A133" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B133" t="s">
+        <v>413</v>
+      </c>
+      <c r="C133" t="s">
+        <v>222</v>
+      </c>
+      <c r="D133" t="s">
+        <v>432</v>
+      </c>
+      <c r="F133" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> insert into DI_REF_DATA values ('EVT','EVT_emergencyContactName','TestEmergency');</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
+      <c r="A134" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B134" t="s">
+        <v>414</v>
+      </c>
+      <c r="C134" t="s">
+        <v>222</v>
+      </c>
+      <c r="D134">
+        <v>4448987987</v>
+      </c>
+      <c r="F134" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> insert into DI_REF_DATA values ('EVT','EVT_emergencyContactNumber','4448987987');</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
+      <c r="A135" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B135" t="s">
+        <v>415</v>
+      </c>
+      <c r="C135" t="s">
+        <v>222</v>
+      </c>
+      <c r="D135" t="s">
+        <v>433</v>
+      </c>
+      <c r="F135" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> insert into DI_REF_DATA values ('EVT','EVT_channel','Email');</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
+      <c r="A136" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B136" t="s">
+        <v>416</v>
+      </c>
+      <c r="C136" t="s">
+        <v>222</v>
+      </c>
+      <c r="D136" t="s">
+        <v>228</v>
+      </c>
+      <c r="F136" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> insert into DI_REF_DATA values ('EVT','EVT_source','E13DM1001');</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
+      <c r="A137" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="B137" t="s">
+        <v>436</v>
+      </c>
+      <c r="C137" t="s">
+        <v>222</v>
+      </c>
+      <c r="D137" t="s">
+        <v>438</v>
+      </c>
+      <c r="F137" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> insert into DI_REF_DATA values ('EVTPack','EVTPack_merchanProductCode','BMFONL');</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
+      <c r="A138" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="B138" t="s">
+        <v>437</v>
+      </c>
+      <c r="C138" t="s">
+        <v>222</v>
+      </c>
+      <c r="D138">
+        <v>1</v>
+      </c>
+      <c r="F138" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> insert into DI_REF_DATA values ('EVTPack','EVTPack_quantity','1');</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
+      <c r="A139" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="B139" t="s">
+        <v>440</v>
+      </c>
+      <c r="C139" t="s">
+        <v>222</v>
+      </c>
+      <c r="D139">
+        <v>9.99</v>
+      </c>
+      <c r="F139" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> insert into DI_REF_DATA values ('SO','SO_amount','9.99');</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
+      <c r="A140" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="B140" t="s">
+        <v>441</v>
+      </c>
+      <c r="C140" t="s">
+        <v>222</v>
+      </c>
+      <c r="D140" t="s">
+        <v>316</v>
+      </c>
+      <c r="F140" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> insert into DI_REF_DATA values ('SO','SO_accountName','Mrs valid');</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6">
+      <c r="A141" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="B141" t="s">
+        <v>442</v>
+      </c>
+      <c r="C141" t="s">
+        <v>222</v>
+      </c>
+      <c r="D141">
+        <v>69255342</v>
+      </c>
+      <c r="F141" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> insert into DI_REF_DATA values ('SO','SO_bankAccountNumber','69255342');</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6">
+      <c r="A142" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="B142" t="s">
+        <v>443</v>
+      </c>
+      <c r="C142" t="s">
+        <v>222</v>
+      </c>
+      <c r="D142">
+        <v>602040</v>
+      </c>
+      <c r="F142" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> insert into DI_REF_DATA values ('SO','SO_bankSortCode','602040');</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
+      <c r="A143" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="B143" t="s">
+        <v>444</v>
+      </c>
+      <c r="C143" t="s">
+        <v>222</v>
+      </c>
+      <c r="D143">
+        <v>120</v>
+      </c>
+      <c r="F143" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> insert into DI_REF_DATA values ('SO','SO_crukBankAccountCode','120');</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
+      <c r="A144" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="B144" t="s">
+        <v>445</v>
+      </c>
+      <c r="C144" t="s">
+        <v>222</v>
+      </c>
+      <c r="D144" t="s">
+        <v>449</v>
+      </c>
+      <c r="F144" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> insert into DI_REF_DATA values ('SO','SO_frequency','Quarterly');</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6">
+      <c r="A145" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="B145" t="s">
+        <v>446</v>
+      </c>
+      <c r="F145" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> insert into DI_REF_DATA values ('SO','SO_reference','');</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6">
+      <c r="A146" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="B146" t="s">
+        <v>447</v>
+      </c>
+      <c r="C146" t="s">
+        <v>222</v>
+      </c>
+      <c r="D146" t="s">
+        <v>228</v>
+      </c>
+      <c r="F146" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> insert into DI_REF_DATA values ('SO','SO_source','E13DM1001');</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6">
+      <c r="A147" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="B147" t="s">
+        <v>448</v>
+      </c>
+      <c r="C147" t="s">
+        <v>222</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="F147" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> insert into DI_REF_DATA values ('SO','SO_startDate','2020-12-08');</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D43" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B22"/>
+  <sheetPr codeName="Sheet5"/>
+  <dimension ref="A1:B152"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView topLeftCell="A132" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B156" sqref="B156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9647,7 +13850,7 @@
         <v>223</v>
       </c>
       <c r="B2" t="str">
-        <f t="shared" ref="B2:B22" si="0">"generate(case when "&amp;A2&amp;" ='Y' then (select type from DI_REF_TEST_AUTOMATE au where au.test_id=e.test_id and field='"&amp;A2&amp;"' ) else '' end,'"&amp;A2&amp;"' ) "&amp;A2&amp;" ,"</f>
+        <f t="shared" ref="B2:B65" si="0">"generate(case when "&amp;A2&amp;" ='Y' then (select type from DI_REF_TEST_AUTOMATE au where au.test_id=e.test_id and field='"&amp;A2&amp;"' ) else '' end,'"&amp;A2&amp;"' ) "&amp;A2&amp;" ,"</f>
         <v>generate(case when SUPP_primaryExternalRefId ='Y' then (select type from DI_REF_TEST_AUTOMATE au where au.test_id=e.test_id and field='SUPP_primaryExternalRefId' ) else '' end,'SUPP_primaryExternalRefId' ) SUPP_primaryExternalRefId ,</v>
       </c>
     </row>
@@ -9829,6 +14032,1176 @@
       <c r="B22" t="str">
         <f t="shared" si="0"/>
         <v>generate(case when SUPP_maritalStatus ='Y' then (select type from DI_REF_TEST_AUTOMATE au where au.test_id=e.test_id and field='SUPP_maritalStatus' ) else '' end,'SUPP_maritalStatus' ) SUPP_maritalStatus ,</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B23" t="str">
+        <f t="shared" si="0"/>
+        <v>generate(case when ADDR_addressLine1 ='Y' then (select type from DI_REF_TEST_AUTOMATE au where au.test_id=e.test_id and field='ADDR_addressLine1' ) else '' end,'ADDR_addressLine1' ) ADDR_addressLine1 ,</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B24" t="str">
+        <f t="shared" si="0"/>
+        <v>generate(case when ADDR_addressLine2 ='Y' then (select type from DI_REF_TEST_AUTOMATE au where au.test_id=e.test_id and field='ADDR_addressLine2' ) else '' end,'ADDR_addressLine2' ) ADDR_addressLine2 ,</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B25" t="str">
+        <f t="shared" si="0"/>
+        <v>generate(case when ADDR_addressLine3 ='Y' then (select type from DI_REF_TEST_AUTOMATE au where au.test_id=e.test_id and field='ADDR_addressLine3' ) else '' end,'ADDR_addressLine3' ) ADDR_addressLine3 ,</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B26" t="str">
+        <f t="shared" si="0"/>
+        <v>generate(case when ADDR_addressLine4 ='Y' then (select type from DI_REF_TEST_AUTOMATE au where au.test_id=e.test_id and field='ADDR_addressLine4' ) else '' end,'ADDR_addressLine4' ) ADDR_addressLine4 ,</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B27" t="str">
+        <f t="shared" si="0"/>
+        <v>generate(case when ADDR_cherishedAddressHN ='Y' then (select type from DI_REF_TEST_AUTOMATE au where au.test_id=e.test_id and field='ADDR_cherishedAddressHN' ) else '' end,'ADDR_cherishedAddressHN' ) ADDR_cherishedAddressHN ,</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B28" t="str">
+        <f t="shared" si="0"/>
+        <v>generate(case when ADDR_city ='Y' then (select type from DI_REF_TEST_AUTOMATE au where au.test_id=e.test_id and field='ADDR_city' ) else '' end,'ADDR_city' ) ADDR_city ,</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B29" t="str">
+        <f t="shared" si="0"/>
+        <v>generate(case when ADDR_country ='Y' then (select type from DI_REF_TEST_AUTOMATE au where au.test_id=e.test_id and field='ADDR_country' ) else '' end,'ADDR_country' ) ADDR_country ,</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B30" t="str">
+        <f t="shared" si="0"/>
+        <v>generate(case when ADDR_county ='Y' then (select type from DI_REF_TEST_AUTOMATE au where au.test_id=e.test_id and field='ADDR_county' ) else '' end,'ADDR_county' ) ADDR_county ,</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B31" t="str">
+        <f t="shared" si="0"/>
+        <v>generate(case when ADDR_postalCode ='Y' then (select type from DI_REF_TEST_AUTOMATE au where au.test_id=e.test_id and field='ADDR_postalCode' ) else '' end,'ADDR_postalCode' ) ADDR_postalCode ,</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B32" t="str">
+        <f t="shared" si="0"/>
+        <v>generate(case when ADDR_startDate ='Y' then (select type from DI_REF_TEST_AUTOMATE au where au.test_id=e.test_id and field='ADDR_startDate' ) else '' end,'ADDR_startDate' ) ADDR_startDate ,</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B33" t="str">
+        <f t="shared" si="0"/>
+        <v>generate(case when ADDR_validationStatus ='Y' then (select type from DI_REF_TEST_AUTOMATE au where au.test_id=e.test_id and field='ADDR_validationStatus' ) else '' end,'ADDR_validationStatus' ) ADDR_validationStatus ,</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B34" t="str">
+        <f t="shared" si="0"/>
+        <v>generate(case when ADDR_newAddressIndicator ='Y' then (select type from DI_REF_TEST_AUTOMATE au where au.test_id=e.test_id and field='ADDR_newAddressIndicator' ) else '' end,'ADDR_newAddressIndicator' ) ADDR_newAddressIndicator ,</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B35" t="str">
+        <f t="shared" si="0"/>
+        <v>generate(case when SEC_ADDR_addressLine1 ='Y' then (select type from DI_REF_TEST_AUTOMATE au where au.test_id=e.test_id and field='SEC_ADDR_addressLine1' ) else '' end,'SEC_ADDR_addressLine1' ) SEC_ADDR_addressLine1 ,</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B36" t="str">
+        <f t="shared" si="0"/>
+        <v>generate(case when SEC_ADDR_addressLine2 ='Y' then (select type from DI_REF_TEST_AUTOMATE au where au.test_id=e.test_id and field='SEC_ADDR_addressLine2' ) else '' end,'SEC_ADDR_addressLine2' ) SEC_ADDR_addressLine2 ,</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B37" t="str">
+        <f t="shared" si="0"/>
+        <v>generate(case when SEC_ADDR_addressLine3 ='Y' then (select type from DI_REF_TEST_AUTOMATE au where au.test_id=e.test_id and field='SEC_ADDR_addressLine3' ) else '' end,'SEC_ADDR_addressLine3' ) SEC_ADDR_addressLine3 ,</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B38" t="str">
+        <f t="shared" si="0"/>
+        <v>generate(case when SEC_ADDR_addressLine4 ='Y' then (select type from DI_REF_TEST_AUTOMATE au where au.test_id=e.test_id and field='SEC_ADDR_addressLine4' ) else '' end,'SEC_ADDR_addressLine4' ) SEC_ADDR_addressLine4 ,</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B39" t="str">
+        <f t="shared" si="0"/>
+        <v>generate(case when SEC_ADDR_cherishedAddressHN ='Y' then (select type from DI_REF_TEST_AUTOMATE au where au.test_id=e.test_id and field='SEC_ADDR_cherishedAddressHN' ) else '' end,'SEC_ADDR_cherishedAddressHN' ) SEC_ADDR_cherishedAddressHN ,</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B40" t="str">
+        <f t="shared" si="0"/>
+        <v>generate(case when SEC_ADDR_city ='Y' then (select type from DI_REF_TEST_AUTOMATE au where au.test_id=e.test_id and field='SEC_ADDR_city' ) else '' end,'SEC_ADDR_city' ) SEC_ADDR_city ,</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B41" t="str">
+        <f t="shared" si="0"/>
+        <v>generate(case when SEC_ADDR_country ='Y' then (select type from DI_REF_TEST_AUTOMATE au where au.test_id=e.test_id and field='SEC_ADDR_country' ) else '' end,'SEC_ADDR_country' ) SEC_ADDR_country ,</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B42" t="str">
+        <f t="shared" si="0"/>
+        <v>generate(case when SEC_ADDR_county ='Y' then (select type from DI_REF_TEST_AUTOMATE au where au.test_id=e.test_id and field='SEC_ADDR_county' ) else '' end,'SEC_ADDR_county' ) SEC_ADDR_county ,</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B43" t="str">
+        <f t="shared" si="0"/>
+        <v>generate(case when SEC_ADDR_postalCode ='Y' then (select type from DI_REF_TEST_AUTOMATE au where au.test_id=e.test_id and field='SEC_ADDR_postalCode' ) else '' end,'SEC_ADDR_postalCode' ) SEC_ADDR_postalCode ,</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B44" t="str">
+        <f t="shared" si="0"/>
+        <v>generate(case when SEC_ADDR_startDate ='Y' then (select type from DI_REF_TEST_AUTOMATE au where au.test_id=e.test_id and field='SEC_ADDR_startDate' ) else '' end,'SEC_ADDR_startDate' ) SEC_ADDR_startDate ,</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B45" t="str">
+        <f t="shared" si="0"/>
+        <v>generate(case when SEC_ADDR_validationStatus ='Y' then (select type from DI_REF_TEST_AUTOMATE au where au.test_id=e.test_id and field='SEC_ADDR_validationStatus' ) else '' end,'SEC_ADDR_validationStatus' ) SEC_ADDR_validationStatus ,</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B46" t="str">
+        <f t="shared" si="0"/>
+        <v>generate(case when SEC_ADDR_newAddressIndicator ='Y' then (select type from DI_REF_TEST_AUTOMATE au where au.test_id=e.test_id and field='SEC_ADDR_newAddressIndicator' ) else '' end,'SEC_ADDR_newAddressIndicator' ) SEC_ADDR_newAddressIndicator ,</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>276</v>
+      </c>
+      <c r="B47" t="str">
+        <f t="shared" si="0"/>
+        <v>generate(case when CONINFO_phoneNumber ='Y' then (select type from DI_REF_TEST_AUTOMATE au where au.test_id=e.test_id and field='CONINFO_phoneNumber' ) else '' end,'CONINFO_phoneNumber' ) CONINFO_phoneNumber ,</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>280</v>
+      </c>
+      <c r="B48" t="str">
+        <f t="shared" si="0"/>
+        <v>generate(case when CONINFO_emailAddress ='Y' then (select type from DI_REF_TEST_AUTOMATE au where au.test_id=e.test_id and field='CONINFO_emailAddress' ) else '' end,'CONINFO_emailAddress' ) CONINFO_emailAddress ,</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" s="5" customFormat="1">
+      <c r="A49" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="B49" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>generate(case when CONINFO_mobileNumber ='Y' then (select type from DI_REF_TEST_AUTOMATE au where au.test_id=e.test_id and field='CONINFO_mobileNumber' ) else '' end,'CONINFO_mobileNumber' ) CONINFO_mobileNumber ,</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>285</v>
+      </c>
+      <c r="B50" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>generate(case when GAD_confirmedOn ='Y' then (select type from DI_REF_TEST_AUTOMATE au where au.test_id=e.test_id and field='GAD_confirmedOn' ) else '' end,'GAD_confirmedOn' ) GAD_confirmedOn ,</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>286</v>
+      </c>
+      <c r="B51" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>generate(case when GAD_declarationDate ='Y' then (select type from DI_REF_TEST_AUTOMATE au where au.test_id=e.test_id and field='GAD_declarationDate' ) else '' end,'GAD_declarationDate' ) GAD_declarationDate ,</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>287</v>
+      </c>
+      <c r="B52" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>generate(case when GAD_letterCode ='Y' then (select type from DI_REF_TEST_AUTOMATE au where au.test_id=e.test_id and field='GAD_letterCode' ) else '' end,'GAD_letterCode' ) GAD_letterCode ,</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>288</v>
+      </c>
+      <c r="B53" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>generate(case when GAD_method ='Y' then (select type from DI_REF_TEST_AUTOMATE au where au.test_id=e.test_id and field='GAD_method' ) else '' end,'GAD_method' ) GAD_method ,</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>289</v>
+      </c>
+      <c r="B54" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>generate(case when GAD_reference ='Y' then (select type from DI_REF_TEST_AUTOMATE au where au.test_id=e.test_id and field='GAD_reference' ) else '' end,'GAD_reference' ) GAD_reference ,</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>290</v>
+      </c>
+      <c r="B55" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>generate(case when GAD_source ='Y' then (select type from DI_REF_TEST_AUTOMATE au where au.test_id=e.test_id and field='GAD_source' ) else '' end,'GAD_source' ) GAD_source ,</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>291</v>
+      </c>
+      <c r="B56" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>generate(case when GAD_startDate ='Y' then (select type from DI_REF_TEST_AUTOMATE au where au.test_id=e.test_id and field='GAD_startDate' ) else '' end,'GAD_startDate' ) GAD_startDate ,</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>292</v>
+      </c>
+      <c r="B57" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>generate(case when GAD_gadType ='Y' then (select type from DI_REF_TEST_AUTOMATE au where au.test_id=e.test_id and field='GAD_gadType' ) else '' end,'GAD_gadType' ) GAD_gadType ,</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
+        <v>298</v>
+      </c>
+      <c r="B58" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>generate(case when DD_accountName ='Y' then (select type from DI_REF_TEST_AUTOMATE au where au.test_id=e.test_id and field='DD_accountName' ) else '' end,'DD_accountName' ) DD_accountName ,</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
+        <v>299</v>
+      </c>
+      <c r="B59" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>generate(case when DD_amount ='Y' then (select type from DI_REF_TEST_AUTOMATE au where au.test_id=e.test_id and field='DD_amount' ) else '' end,'DD_amount' ) DD_amount ,</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
+        <v>300</v>
+      </c>
+      <c r="B60" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>generate(case when DD_bankAccountNumber ='Y' then (select type from DI_REF_TEST_AUTOMATE au where au.test_id=e.test_id and field='DD_bankAccountNumber' ) else '' end,'DD_bankAccountNumber' ) DD_bankAccountNumber ,</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
+        <v>301</v>
+      </c>
+      <c r="B61" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>generate(case when DD_bankSortCode ='Y' then (select type from DI_REF_TEST_AUTOMATE au where au.test_id=e.test_id and field='DD_bankSortCode' ) else '' end,'DD_bankSortCode' ) DD_bankSortCode ,</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
+        <v>327</v>
+      </c>
+      <c r="B62" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>generate(case when DD_bankAccountCodeCRUK ='Y' then (select type from DI_REF_TEST_AUTOMATE au where au.test_id=e.test_id and field='DD_bankAccountCodeCRUK' ) else '' end,'DD_bankAccountCodeCRUK' ) DD_bankAccountCodeCRUK ,</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" t="s">
+        <v>302</v>
+      </c>
+      <c r="B63" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>generate(case when DD_frequency ='Y' then (select type from DI_REF_TEST_AUTOMATE au where au.test_id=e.test_id and field='DD_frequency' ) else '' end,'DD_frequency' ) DD_frequency ,</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" t="s">
+        <v>303</v>
+      </c>
+      <c r="B64" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>generate(case when DD_product ='Y' then (select type from DI_REF_TEST_AUTOMATE au where au.test_id=e.test_id and field='DD_product' ) else '' end,'DD_product' ) DD_product ,</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
+        <v>304</v>
+      </c>
+      <c r="B65" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>generate(case when DD_reference ='Y' then (select type from DI_REF_TEST_AUTOMATE au where au.test_id=e.test_id and field='DD_reference' ) else '' end,'DD_reference' ) DD_reference ,</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
+        <v>305</v>
+      </c>
+      <c r="B66" s="5" t="str">
+        <f t="shared" ref="B66:B129" si="1">"generate(case when "&amp;A66&amp;" ='Y' then (select type from DI_REF_TEST_AUTOMATE au where au.test_id=e.test_id and field='"&amp;A66&amp;"' ) else '' end,'"&amp;A66&amp;"' ) "&amp;A66&amp;" ,"</f>
+        <v>generate(case when DD_resCode ='Y' then (select type from DI_REF_TEST_AUTOMATE au where au.test_id=e.test_id and field='DD_resCode' ) else '' end,'DD_resCode' ) DD_resCode ,</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
+        <v>306</v>
+      </c>
+      <c r="B67" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>generate(case when DD_source ='Y' then (select type from DI_REF_TEST_AUTOMATE au where au.test_id=e.test_id and field='DD_source' ) else '' end,'DD_source' ) DD_source ,</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" t="s">
+        <v>307</v>
+      </c>
+      <c r="B68" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>generate(case when DD_dataSource ='Y' then (select type from DI_REF_TEST_AUTOMATE au where au.test_id=e.test_id and field='DD_dataSource' ) else '' end,'DD_dataSource' ) DD_dataSource ,</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" t="s">
+        <v>308</v>
+      </c>
+      <c r="B69" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>generate(case when DD_paymentDay ='Y' then (select type from DI_REF_TEST_AUTOMATE au where au.test_id=e.test_id and field='DD_paymentDay' ) else '' end,'DD_paymentDay' ) DD_paymentDay ,</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" t="s">
+        <v>309</v>
+      </c>
+      <c r="B70" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>generate(case when DD_startDate ='Y' then (select type from DI_REF_TEST_AUTOMATE au where au.test_id=e.test_id and field='DD_startDate' ) else '' end,'DD_startDate' ) DD_startDate ,</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" t="s">
+        <v>310</v>
+      </c>
+      <c r="B71" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>generate(case when DD_toBeGiftAided ='Y' then (select type from DI_REF_TEST_AUTOMATE au where au.test_id=e.test_id and field='DD_toBeGiftAided' ) else '' end,'DD_toBeGiftAided' ) DD_toBeGiftAided ,</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" t="s">
+        <v>311</v>
+      </c>
+      <c r="B72" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>generate(case when DD_letterCodeGAD ='Y' then (select type from DI_REF_TEST_AUTOMATE au where au.test_id=e.test_id and field='DD_letterCodeGAD' ) else '' end,'DD_letterCodeGAD' ) DD_letterCodeGAD ,</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" t="s">
+        <v>312</v>
+      </c>
+      <c r="B73" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>generate(case when DD_methodGAD ='Y' then (select type from DI_REF_TEST_AUTOMATE au where au.test_id=e.test_id and field='DD_methodGAD' ) else '' end,'DD_methodGAD' ) DD_methodGAD ,</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" t="s">
+        <v>313</v>
+      </c>
+      <c r="B74" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>generate(case when DD_motivation ='Y' then (select type from DI_REF_TEST_AUTOMATE au where au.test_id=e.test_id and field='DD_motivation' ) else '' end,'DD_motivation' ) DD_motivation ,</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" t="s">
+        <v>314</v>
+      </c>
+      <c r="B75" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>generate(case when DD_inMemoryName ='Y' then (select type from DI_REF_TEST_AUTOMATE au where au.test_id=e.test_id and field='DD_inMemoryName' ) else '' end,'DD_inMemoryName' ) DD_inMemoryName ,</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" t="s">
+        <v>315</v>
+      </c>
+      <c r="B76" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>generate(case when DD_gadType ='Y' then (select type from DI_REF_TEST_AUTOMATE au where au.test_id=e.test_id and field='DD_gadType' ) else '' end,'DD_gadType' ) DD_gadType ,</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" t="s">
+        <v>329</v>
+      </c>
+      <c r="B77" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>generate(case when Don_amount ='Y' then (select type from DI_REF_TEST_AUTOMATE au where au.test_id=e.test_id and field='Don_amount' ) else '' end,'Don_amount' ) Don_amount ,</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" t="s">
+        <v>330</v>
+      </c>
+      <c r="B78" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>generate(case when Don_bankAccountCodeCRUK ='Y' then (select type from DI_REF_TEST_AUTOMATE au where au.test_id=e.test_id and field='Don_bankAccountCodeCRUK' ) else '' end,'Don_bankAccountCodeCRUK' ) Don_bankAccountCodeCRUK ,</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" t="s">
+        <v>331</v>
+      </c>
+      <c r="B79" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>generate(case when Don_dataSource ='Y' then (select type from DI_REF_TEST_AUTOMATE au where au.test_id=e.test_id and field='Don_dataSource' ) else '' end,'Don_dataSource' ) Don_dataSource ,</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" t="s">
+        <v>332</v>
+      </c>
+      <c r="B80" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>generate(case when Don_dateReceived ='Y' then (select type from DI_REF_TEST_AUTOMATE au where au.test_id=e.test_id and field='Don_dateReceived' ) else '' end,'Don_dateReceived' ) Don_dateReceived ,</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" t="s">
+        <v>333</v>
+      </c>
+      <c r="B81" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>generate(case when Don_donationType ='Y' then (select type from DI_REF_TEST_AUTOMATE au where au.test_id=e.test_id and field='Don_donationType' ) else '' end,'Don_donationType' ) Don_donationType ,</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" t="s">
+        <v>334</v>
+      </c>
+      <c r="B82" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>generate(case when Don_eventCode ='Y' then (select type from DI_REF_TEST_AUTOMATE au where au.test_id=e.test_id and field='Don_eventCode' ) else '' end,'Don_eventCode' ) Don_eventCode ,</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" t="s">
+        <v>335</v>
+      </c>
+      <c r="B83" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>generate(case when Don_financialPaymentReference ='Y' then (select type from DI_REF_TEST_AUTOMATE au where au.test_id=e.test_id and field='Don_financialPaymentReference' ) else '' end,'Don_financialPaymentReference' ) Don_financialPaymentReference ,</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" t="s">
+        <v>336</v>
+      </c>
+      <c r="B84" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>generate(case when Don_letterCode ='Y' then (select type from DI_REF_TEST_AUTOMATE au where au.test_id=e.test_id and field='Don_letterCode' ) else '' end,'Don_letterCode' ) Don_letterCode ,</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" t="s">
+        <v>337</v>
+      </c>
+      <c r="B85" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>generate(case when Don_resCode ='Y' then (select type from DI_REF_TEST_AUTOMATE au where au.test_id=e.test_id and field='Don_resCode' ) else '' end,'Don_resCode' ) Don_resCode ,</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" t="s">
+        <v>338</v>
+      </c>
+      <c r="B86" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>generate(case when Don_paymentMethod ='Y' then (select type from DI_REF_TEST_AUTOMATE au where au.test_id=e.test_id and field='Don_paymentMethod' ) else '' end,'Don_paymentMethod' ) Don_paymentMethod ,</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" t="s">
+        <v>339</v>
+      </c>
+      <c r="B87" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>generate(case when Don_paymentStatus ='Y' then (select type from DI_REF_TEST_AUTOMATE au where au.test_id=e.test_id and field='Don_paymentStatus' ) else '' end,'Don_paymentStatus' ) Don_paymentStatus ,</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" t="s">
+        <v>340</v>
+      </c>
+      <c r="B88" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>generate(case when Don_personalGiftAid ='Y' then (select type from DI_REF_TEST_AUTOMATE au where au.test_id=e.test_id and field='Don_personalGiftAid' ) else '' end,'Don_personalGiftAid' ) Don_personalGiftAid ,</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" t="s">
+        <v>341</v>
+      </c>
+      <c r="B89" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>generate(case when Don_reasonNotGiftAid ='Y' then (select type from DI_REF_TEST_AUTOMATE au where au.test_id=e.test_id and field='Don_reasonNotGiftAid' ) else '' end,'Don_reasonNotGiftAid' ) Don_reasonNotGiftAid ,</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" t="s">
+        <v>342</v>
+      </c>
+      <c r="B90" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>generate(case when Don_product ='Y' then (select type from DI_REF_TEST_AUTOMATE au where au.test_id=e.test_id and field='Don_product' ) else '' end,'Don_product' ) Don_product ,</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" t="s">
+        <v>343</v>
+      </c>
+      <c r="B91" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>generate(case when Don_source ='Y' then (select type from DI_REF_TEST_AUTOMATE au where au.test_id=e.test_id and field='Don_source' ) else '' end,'Don_source' ) Don_source ,</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" t="s">
+        <v>344</v>
+      </c>
+      <c r="B92" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>generate(case when Don_webPageId ='Y' then (select type from DI_REF_TEST_AUTOMATE au where au.test_id=e.test_id and field='Don_webPageId' ) else '' end,'Don_webPageId' ) Don_webPageId ,</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" t="s">
+        <v>345</v>
+      </c>
+      <c r="B93" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>generate(case when Don_originatorPaymentID ='Y' then (select type from DI_REF_TEST_AUTOMATE au where au.test_id=e.test_id and field='Don_originatorPaymentID' ) else '' end,'Don_originatorPaymentID' ) Don_originatorPaymentID ,</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" t="s">
+        <v>346</v>
+      </c>
+      <c r="B94" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>generate(case when Don_toBeGiftAided ='Y' then (select type from DI_REF_TEST_AUTOMATE au where au.test_id=e.test_id and field='Don_toBeGiftAided' ) else '' end,'Don_toBeGiftAided' ) Don_toBeGiftAided ,</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" t="s">
+        <v>347</v>
+      </c>
+      <c r="B95" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>generate(case when Don_letterCodeGAD ='Y' then (select type from DI_REF_TEST_AUTOMATE au where au.test_id=e.test_id and field='Don_letterCodeGAD' ) else '' end,'Don_letterCodeGAD' ) Don_letterCodeGAD ,</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" t="s">
+        <v>348</v>
+      </c>
+      <c r="B96" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>generate(case when Don_methodGAD ='Y' then (select type from DI_REF_TEST_AUTOMATE au where au.test_id=e.test_id and field='Don_methodGAD' ) else '' end,'Don_methodGAD' ) Don_methodGAD ,</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" t="s">
+        <v>349</v>
+      </c>
+      <c r="B97" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>generate(case when Don_motivation ='Y' then (select type from DI_REF_TEST_AUTOMATE au where au.test_id=e.test_id and field='Don_motivation' ) else '' end,'Don_motivation' ) Don_motivation ,</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" t="s">
+        <v>350</v>
+      </c>
+      <c r="B98" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>generate(case when Don_inMemoryName ='Y' then (select type from DI_REF_TEST_AUTOMATE au where au.test_id=e.test_id and field='Don_inMemoryName' ) else '' end,'Don_inMemoryName' ) Don_inMemoryName ,</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" t="s">
+        <v>351</v>
+      </c>
+      <c r="B99" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>generate(case when Don_celebrantDataSource ='Y' then (select type from DI_REF_TEST_AUTOMATE au where au.test_id=e.test_id and field='Don_celebrantDataSource' ) else '' end,'Don_celebrantDataSource' ) Don_celebrantDataSource ,</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" t="s">
+        <v>352</v>
+      </c>
+      <c r="B100" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>generate(case when Don_celebrantExternalReference ='Y' then (select type from DI_REF_TEST_AUTOMATE au where au.test_id=e.test_id and field='Don_celebrantExternalReference' ) else '' end,'Don_celebrantExternalReference' ) Don_celebrantExternalReference ,</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" t="s">
+        <v>366</v>
+      </c>
+      <c r="B101" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>generate(case when Don_paymentProviderTransactId ='Y' then (select type from DI_REF_TEST_AUTOMATE au where au.test_id=e.test_id and field='Don_paymentProviderTransactId' ) else '' end,'Don_paymentProviderTransactId' ) Don_paymentProviderTransactId ,</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" t="s">
+        <v>353</v>
+      </c>
+      <c r="B102" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>generate(case when Don_gadType ='Y' then (select type from DI_REF_TEST_AUTOMATE au where au.test_id=e.test_id and field='Don_gadType' ) else '' end,'Don_gadType' ) Don_gadType ,</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" t="s">
+        <v>354</v>
+      </c>
+      <c r="B103" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>generate(case when Don_excludefromAgresso ='Y' then (select type from DI_REF_TEST_AUTOMATE au where au.test_id=e.test_id and field='Don_excludefromAgresso' ) else '' end,'Don_excludefromAgresso' ) Don_excludefromAgresso ,</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" t="s">
+        <v>369</v>
+      </c>
+      <c r="B104" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>generate(case when SuppPre_endDate ='Y' then (select type from DI_REF_TEST_AUTOMATE au where au.test_id=e.test_id and field='SuppPre_endDate' ) else '' end,'SuppPre_endDate' ) SuppPre_endDate ,</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" t="s">
+        <v>370</v>
+      </c>
+      <c r="B105" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>generate(case when SuppPre_startDate ='Y' then (select type from DI_REF_TEST_AUTOMATE au where au.test_id=e.test_id and field='SuppPre_startDate' ) else '' end,'SuppPre_startDate' ) SuppPre_startDate ,</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" t="s">
+        <v>371</v>
+      </c>
+      <c r="B106" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>generate(case when SuppPre_suppressionPreCode ='Y' then (select type from DI_REF_TEST_AUTOMATE au where au.test_id=e.test_id and field='SuppPre_suppressionPreCode' ) else '' end,'SuppPre_suppressionPreCode' ) SuppPre_suppressionPreCode ,</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" t="s">
+        <v>372</v>
+      </c>
+      <c r="B107" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>generate(case when SuppPre_source ='Y' then (select type from DI_REF_TEST_AUTOMATE au where au.test_id=e.test_id and field='SuppPre_source' ) else '' end,'SuppPre_source' ) SuppPre_source ,</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" t="s">
+        <v>376</v>
+      </c>
+      <c r="B108" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>generate(case when Camp_campaignCode ='Y' then (select type from DI_REF_TEST_AUTOMATE au where au.test_id=e.test_id and field='Camp_campaignCode' ) else '' end,'Camp_campaignCode' ) Camp_campaignCode ,</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" t="s">
+        <v>377</v>
+      </c>
+      <c r="B109" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>generate(case when Camp_contactedOn ='Y' then (select type from DI_REF_TEST_AUTOMATE au where au.test_id=e.test_id and field='Camp_contactedOn' ) else '' end,'Camp_contactedOn' ) Camp_contactedOn ,</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" t="s">
+        <v>378</v>
+      </c>
+      <c r="B110" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>generate(case when Camp_outcome ='Y' then (select type from DI_REF_TEST_AUTOMATE au where au.test_id=e.test_id and field='Camp_outcome' ) else '' end,'Camp_outcome' ) Camp_outcome ,</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" t="s">
+        <v>379</v>
+      </c>
+      <c r="B111" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>generate(case when Camp_versionCode ='Y' then (select type from DI_REF_TEST_AUTOMATE au where au.test_id=e.test_id and field='Camp_versionCode' ) else '' end,'Camp_versionCode' ) Camp_versionCode ,</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" t="s">
+        <v>384</v>
+      </c>
+      <c r="B112" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>generate(case when Camp_campaignRecipient ='Y' then (select type from DI_REF_TEST_AUTOMATE au where au.test_id=e.test_id and field='Camp_campaignRecipient' ) else '' end,'Camp_campaignRecipient' ) Camp_campaignRecipient ,</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" t="s">
+        <v>386</v>
+      </c>
+      <c r="B113" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>generate(case when Act_category ='Y' then (select type from DI_REF_TEST_AUTOMATE au where au.test_id=e.test_id and field='Act_category' ) else '' end,'Act_category' ) Act_category ,</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" t="s">
+        <v>387</v>
+      </c>
+      <c r="B114" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>generate(case when Act_endDate ='Y' then (select type from DI_REF_TEST_AUTOMATE au where au.test_id=e.test_id and field='Act_endDate' ) else '' end,'Act_endDate' ) Act_endDate ,</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" t="s">
+        <v>388</v>
+      </c>
+      <c r="B115" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>generate(case when Act_letterCode ='Y' then (select type from DI_REF_TEST_AUTOMATE au where au.test_id=e.test_id and field='Act_letterCode' ) else '' end,'Act_letterCode' ) Act_letterCode ,</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" t="s">
+        <v>389</v>
+      </c>
+      <c r="B116" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>generate(case when Act_originatorActivityID ='Y' then (select type from DI_REF_TEST_AUTOMATE au where au.test_id=e.test_id and field='Act_originatorActivityID' ) else '' end,'Act_originatorActivityID' ) Act_originatorActivityID ,</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" t="s">
+        <v>392</v>
+      </c>
+      <c r="B117" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>generate(case when EVT_eventCode ='Y' then (select type from DI_REF_TEST_AUTOMATE au where au.test_id=e.test_id and field='EVT_eventCode' ) else '' end,'EVT_eventCode' ) EVT_eventCode ,</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" t="s">
+        <v>393</v>
+      </c>
+      <c r="B118" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>generate(case when EVT_registrationNumber ='Y' then (select type from DI_REF_TEST_AUTOMATE au where au.test_id=e.test_id and field='EVT_registrationNumber' ) else '' end,'EVT_registrationNumber' ) EVT_registrationNumber ,</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" t="s">
+        <v>394</v>
+      </c>
+      <c r="B119" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>generate(case when EVT_entryType ='Y' then (select type from DI_REF_TEST_AUTOMATE au where au.test_id=e.test_id and field='EVT_entryType' ) else '' end,'EVT_entryType' ) EVT_entryType ,</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" t="s">
+        <v>395</v>
+      </c>
+      <c r="B120" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>generate(case when EVT_entryFeeStatus ='Y' then (select type from DI_REF_TEST_AUTOMATE au where au.test_id=e.test_id and field='EVT_entryFeeStatus' ) else '' end,'EVT_entryFeeStatus' ) EVT_entryFeeStatus ,</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" t="s">
+        <v>396</v>
+      </c>
+      <c r="B121" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>generate(case when EVT_cancerType ='Y' then (select type from DI_REF_TEST_AUTOMATE au where au.test_id=e.test_id and field='EVT_cancerType' ) else '' end,'EVT_cancerType' ) EVT_cancerType ,</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" t="s">
+        <v>397</v>
+      </c>
+      <c r="B122" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>generate(case when EVT_fundraisingPageId ='Y' then (select type from DI_REF_TEST_AUTOMATE au where au.test_id=e.test_id and field='EVT_fundraisingPageId' ) else '' end,'EVT_fundraisingPageId' ) EVT_fundraisingPageId ,</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" t="s">
+        <v>398</v>
+      </c>
+      <c r="B123" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>generate(case when EVT_fundraisingPageType ='Y' then (select type from DI_REF_TEST_AUTOMATE au where au.test_id=e.test_id and field='EVT_fundraisingPageType' ) else '' end,'EVT_fundraisingPageType' ) EVT_fundraisingPageType ,</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" t="s">
+        <v>399</v>
+      </c>
+      <c r="B124" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>generate(case when EVT_fundraisingPageUrl ='Y' then (select type from DI_REF_TEST_AUTOMATE au where au.test_id=e.test_id and field='EVT_fundraisingPageUrl' ) else '' end,'EVT_fundraisingPageUrl' ) EVT_fundraisingPageUrl ,</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" t="s">
+        <v>400</v>
+      </c>
+      <c r="B125" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>generate(case when EVT_howHeardAbout ='Y' then (select type from DI_REF_TEST_AUTOMATE au where au.test_id=e.test_id and field='EVT_howHeardAbout' ) else '' end,'EVT_howHeardAbout' ) EVT_howHeardAbout ,</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" t="s">
+        <v>401</v>
+      </c>
+      <c r="B126" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>generate(case when EVT_inviteSource ='Y' then (select type from DI_REF_TEST_AUTOMATE au where au.test_id=e.test_id and field='EVT_inviteSource' ) else '' end,'EVT_inviteSource' ) EVT_inviteSource ,</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" t="s">
+        <v>402</v>
+      </c>
+      <c r="B127" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>generate(case when EVT_motivation ='Y' then (select type from DI_REF_TEST_AUTOMATE au where au.test_id=e.test_id and field='EVT_motivation' ) else '' end,'EVT_motivation' ) EVT_motivation ,</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" t="s">
+        <v>403</v>
+      </c>
+      <c r="B128" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>generate(case when EVT_participationType ='Y' then (select type from DI_REF_TEST_AUTOMATE au where au.test_id=e.test_id and field='EVT_participationType' ) else '' end,'EVT_participationType' ) EVT_participationType ,</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" t="s">
+        <v>404</v>
+      </c>
+      <c r="B129" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>generate(case when EVT_placeType ='Y' then (select type from DI_REF_TEST_AUTOMATE au where au.test_id=e.test_id and field='EVT_placeType' ) else '' end,'EVT_placeType' ) EVT_placeType ,</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" t="s">
+        <v>405</v>
+      </c>
+      <c r="B130" s="5" t="str">
+        <f t="shared" ref="B130:B152" si="2">"generate(case when "&amp;A130&amp;" ='Y' then (select type from DI_REF_TEST_AUTOMATE au where au.test_id=e.test_id and field='"&amp;A130&amp;"' ) else '' end,'"&amp;A130&amp;"' ) "&amp;A130&amp;" ,"</f>
+        <v>generate(case when EVT_pledgeAmount ='Y' then (select type from DI_REF_TEST_AUTOMATE au where au.test_id=e.test_id and field='EVT_pledgeAmount' ) else '' end,'EVT_pledgeAmount' ) EVT_pledgeAmount ,</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" t="s">
+        <v>406</v>
+      </c>
+      <c r="B131" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>generate(case when EVT_registered ='Y' then (select type from DI_REF_TEST_AUTOMATE au where au.test_id=e.test_id and field='EVT_registered' ) else '' end,'EVT_registered' ) EVT_registered ,</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" t="s">
+        <v>407</v>
+      </c>
+      <c r="B132" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>generate(case when EVT_registrationStatus ='Y' then (select type from DI_REF_TEST_AUTOMATE au where au.test_id=e.test_id and field='EVT_registrationStatus' ) else '' end,'EVT_registrationStatus' ) EVT_registrationStatus ,</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" t="s">
+        <v>408</v>
+      </c>
+      <c r="B133" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>generate(case when EVT_supporterRegistrationType ='Y' then (select type from DI_REF_TEST_AUTOMATE au where au.test_id=e.test_id and field='EVT_supporterRegistrationType' ) else '' end,'EVT_supporterRegistrationType' ) EVT_supporterRegistrationType ,</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" t="s">
+        <v>409</v>
+      </c>
+      <c r="B134" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>generate(case when EVT_survivorshipActivities ='Y' then (select type from DI_REF_TEST_AUTOMATE au where au.test_id=e.test_id and field='EVT_survivorshipActivities' ) else '' end,'EVT_survivorshipActivities' ) EVT_survivorshipActivities ,</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" t="s">
+        <v>410</v>
+      </c>
+      <c r="B135" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>generate(case when EVT_runningNumber ='Y' then (select type from DI_REF_TEST_AUTOMATE au where au.test_id=e.test_id and field='EVT_runningNumber' ) else '' end,'EVT_runningNumber' ) EVT_runningNumber ,</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" t="s">
+        <v>411</v>
+      </c>
+      <c r="B136" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>generate(case when EVT_groupName ='Y' then (select type from DI_REF_TEST_AUTOMATE au where au.test_id=e.test_id and field='EVT_groupName' ) else '' end,'EVT_groupName' ) EVT_groupName ,</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" t="s">
+        <v>412</v>
+      </c>
+      <c r="B137" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>generate(case when EVT_groupRole ='Y' then (select type from DI_REF_TEST_AUTOMATE au where au.test_id=e.test_id and field='EVT_groupRole' ) else '' end,'EVT_groupRole' ) EVT_groupRole ,</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" t="s">
+        <v>413</v>
+      </c>
+      <c r="B138" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>generate(case when EVT_emergencyContactName ='Y' then (select type from DI_REF_TEST_AUTOMATE au where au.test_id=e.test_id and field='EVT_emergencyContactName' ) else '' end,'EVT_emergencyContactName' ) EVT_emergencyContactName ,</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" t="s">
+        <v>414</v>
+      </c>
+      <c r="B139" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>generate(case when EVT_emergencyContactNumber ='Y' then (select type from DI_REF_TEST_AUTOMATE au where au.test_id=e.test_id and field='EVT_emergencyContactNumber' ) else '' end,'EVT_emergencyContactNumber' ) EVT_emergencyContactNumber ,</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" t="s">
+        <v>415</v>
+      </c>
+      <c r="B140" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>generate(case when EVT_channel ='Y' then (select type from DI_REF_TEST_AUTOMATE au where au.test_id=e.test_id and field='EVT_channel' ) else '' end,'EVT_channel' ) EVT_channel ,</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" t="s">
+        <v>416</v>
+      </c>
+      <c r="B141" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>generate(case when EVT_source ='Y' then (select type from DI_REF_TEST_AUTOMATE au where au.test_id=e.test_id and field='EVT_source' ) else '' end,'EVT_source' ) EVT_source ,</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" t="s">
+        <v>436</v>
+      </c>
+      <c r="B142" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>generate(case when EVTPack_merchanProductCode ='Y' then (select type from DI_REF_TEST_AUTOMATE au where au.test_id=e.test_id and field='EVTPack_merchanProductCode' ) else '' end,'EVTPack_merchanProductCode' ) EVTPack_merchanProductCode ,</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" t="s">
+        <v>437</v>
+      </c>
+      <c r="B143" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>generate(case when EVTPack_quantity ='Y' then (select type from DI_REF_TEST_AUTOMATE au where au.test_id=e.test_id and field='EVTPack_quantity' ) else '' end,'EVTPack_quantity' ) EVTPack_quantity ,</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" t="s">
+        <v>440</v>
+      </c>
+      <c r="B144" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>generate(case when SO_amount ='Y' then (select type from DI_REF_TEST_AUTOMATE au where au.test_id=e.test_id and field='SO_amount' ) else '' end,'SO_amount' ) SO_amount ,</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" t="s">
+        <v>441</v>
+      </c>
+      <c r="B145" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>generate(case when SO_accountName ='Y' then (select type from DI_REF_TEST_AUTOMATE au where au.test_id=e.test_id and field='SO_accountName' ) else '' end,'SO_accountName' ) SO_accountName ,</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" t="s">
+        <v>442</v>
+      </c>
+      <c r="B146" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>generate(case when SO_bankAccountNumber ='Y' then (select type from DI_REF_TEST_AUTOMATE au where au.test_id=e.test_id and field='SO_bankAccountNumber' ) else '' end,'SO_bankAccountNumber' ) SO_bankAccountNumber ,</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" t="s">
+        <v>443</v>
+      </c>
+      <c r="B147" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>generate(case when SO_bankSortCode ='Y' then (select type from DI_REF_TEST_AUTOMATE au where au.test_id=e.test_id and field='SO_bankSortCode' ) else '' end,'SO_bankSortCode' ) SO_bankSortCode ,</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" t="s">
+        <v>444</v>
+      </c>
+      <c r="B148" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>generate(case when SO_crukBankAccountCode ='Y' then (select type from DI_REF_TEST_AUTOMATE au where au.test_id=e.test_id and field='SO_crukBankAccountCode' ) else '' end,'SO_crukBankAccountCode' ) SO_crukBankAccountCode ,</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" t="s">
+        <v>445</v>
+      </c>
+      <c r="B149" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>generate(case when SO_frequency ='Y' then (select type from DI_REF_TEST_AUTOMATE au where au.test_id=e.test_id and field='SO_frequency' ) else '' end,'SO_frequency' ) SO_frequency ,</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" t="s">
+        <v>446</v>
+      </c>
+      <c r="B150" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>generate(case when SO_reference ='Y' then (select type from DI_REF_TEST_AUTOMATE au where au.test_id=e.test_id and field='SO_reference' ) else '' end,'SO_reference' ) SO_reference ,</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" t="s">
+        <v>447</v>
+      </c>
+      <c r="B151" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>generate(case when SO_source ='Y' then (select type from DI_REF_TEST_AUTOMATE au where au.test_id=e.test_id and field='SO_source' ) else '' end,'SO_source' ) SO_source ,</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152" t="s">
+        <v>448</v>
+      </c>
+      <c r="B152" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>generate(case when SO_startDate ='Y' then (select type from DI_REF_TEST_AUTOMATE au where au.test_id=e.test_id and field='SO_startDate' ) else '' end,'SO_startDate' ) SO_startDate ,</v>
       </c>
     </row>
   </sheetData>

--- a/SQL_Scripts/supp_gen_fields.xlsx
+++ b/SQL_Scripts/supp_gen_fields.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="360" windowWidth="19815" windowHeight="7650" activeTab="3"/>
+    <workbookView xWindow="480" yWindow="360" windowWidth="19815" windowHeight="7650" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Generic_Complete" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2355" uniqueCount="450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2694" uniqueCount="531">
   <si>
     <t>name</t>
   </si>
@@ -1372,6 +1372,249 @@
   </si>
   <si>
     <t>Quarterly</t>
+  </si>
+  <si>
+    <t>Pinfo</t>
+  </si>
+  <si>
+    <t>Pinfo_codeLevel1</t>
+  </si>
+  <si>
+    <t>Pinfo_codeLevel2</t>
+  </si>
+  <si>
+    <t>Pinfo_source</t>
+  </si>
+  <si>
+    <t>Pinfo_comments</t>
+  </si>
+  <si>
+    <t>Pinfo_startDate</t>
+  </si>
+  <si>
+    <t>Pinfo_endDate</t>
+  </si>
+  <si>
+    <t>Pinfo_siebelAttribute1</t>
+  </si>
+  <si>
+    <t>Pinfo_siebelAttribute6</t>
+  </si>
+  <si>
+    <t>L10CH3</t>
+  </si>
+  <si>
+    <t>NEV</t>
+  </si>
+  <si>
+    <t>LEG INT PF LOV</t>
+  </si>
+  <si>
+    <t>DI Test</t>
+  </si>
+  <si>
+    <t>Oppty</t>
+  </si>
+  <si>
+    <t>Oppty_dataSource</t>
+  </si>
+  <si>
+    <t>Oppty_crukReference</t>
+  </si>
+  <si>
+    <t>Oppty_department</t>
+  </si>
+  <si>
+    <t>Oppty_journey</t>
+  </si>
+  <si>
+    <t>Oppty_stage</t>
+  </si>
+  <si>
+    <t>Oppty_source</t>
+  </si>
+  <si>
+    <t>Oppty_startDate</t>
+  </si>
+  <si>
+    <t>Oppty_description</t>
+  </si>
+  <si>
+    <t>Oppty_likelihood</t>
+  </si>
+  <si>
+    <t>Oppty_currency</t>
+  </si>
+  <si>
+    <t>Oppty_externalReference</t>
+  </si>
+  <si>
+    <t>Oppty_status</t>
+  </si>
+  <si>
+    <t>Oppty_endDate</t>
+  </si>
+  <si>
+    <t>Oppty_reasonForClosure</t>
+  </si>
+  <si>
+    <t>Oppty_closureSummary</t>
+  </si>
+  <si>
+    <t>PGMS</t>
+  </si>
+  <si>
+    <t>MG&amp;amp;A</t>
+  </si>
+  <si>
+    <t>MG&amp;amp;A Journey</t>
+  </si>
+  <si>
+    <t>1 - Identify</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is DI Test description </t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>GBP</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>Test Closure</t>
+  </si>
+  <si>
+    <t>Test Closure Summary</t>
+  </si>
+  <si>
+    <t>OpptyProd</t>
+  </si>
+  <si>
+    <t>OpptyProd_crukReference</t>
+  </si>
+  <si>
+    <t>OpptyProd_externalReference</t>
+  </si>
+  <si>
+    <t>OpptyProd_dataSource</t>
+  </si>
+  <si>
+    <t>OpptyProd_productCode</t>
+  </si>
+  <si>
+    <t>OpptyProd_targetAmount</t>
+  </si>
+  <si>
+    <t>OpptyProd_askAmount</t>
+  </si>
+  <si>
+    <t>OpptyProd_askDate</t>
+  </si>
+  <si>
+    <t>OpptyProd_percentage</t>
+  </si>
+  <si>
+    <t>OpptyProd_agreedAmount</t>
+  </si>
+  <si>
+    <t>OpptyProd_expectedDate</t>
+  </si>
+  <si>
+    <t>OpptyProd_notes</t>
+  </si>
+  <si>
+    <t>OpptyProd_resCode</t>
+  </si>
+  <si>
+    <t>OpptyProd_motivation</t>
+  </si>
+  <si>
+    <t>OpptyProd_inMemoryName</t>
+  </si>
+  <si>
+    <t>BMPCOR</t>
+  </si>
+  <si>
+    <t>2021-12-08</t>
+  </si>
+  <si>
+    <t>DI test</t>
+  </si>
+  <si>
+    <t>Mr Mem Name</t>
+  </si>
+  <si>
+    <t>OpptyAct</t>
+  </si>
+  <si>
+    <t>OpptyAct_crukReference</t>
+  </si>
+  <si>
+    <t>OpptyAct_externalReference</t>
+  </si>
+  <si>
+    <t>OpptyAct_dataSource</t>
+  </si>
+  <si>
+    <t>OpptyAct_type</t>
+  </si>
+  <si>
+    <t>OpptyAct_subType</t>
+  </si>
+  <si>
+    <t>OpptyAct_category</t>
+  </si>
+  <si>
+    <t>OpptyAct_subCategory</t>
+  </si>
+  <si>
+    <t>OpptyAct_description</t>
+  </si>
+  <si>
+    <t>OpptyAct_comments</t>
+  </si>
+  <si>
+    <t>OpptyAct_completedDate</t>
+  </si>
+  <si>
+    <t>OpptyAct_status</t>
+  </si>
+  <si>
+    <t>OpptyAct_startDate</t>
+  </si>
+  <si>
+    <t>OpptyAct_endDate</t>
+  </si>
+  <si>
+    <t>OpptyAct_source</t>
+  </si>
+  <si>
+    <t>Meeting</t>
+  </si>
+  <si>
+    <t>Donate in Memory</t>
+  </si>
+  <si>
+    <t>Acknowledgement Chase</t>
+  </si>
+  <si>
+    <t>Test Description</t>
+  </si>
+  <si>
+    <t>Test Comments</t>
+  </si>
+  <si>
+    <t>2018-01-17T13:11:20</t>
+  </si>
+  <si>
+    <t>In Progress</t>
+  </si>
+  <si>
+    <t>2011-01-17T13:11:20</t>
   </si>
 </sst>
 </file>
@@ -1747,7 +1990,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H309"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
+    <sheetView topLeftCell="A79" workbookViewId="0">
       <selection activeCell="B72" sqref="B72"/>
     </sheetView>
   </sheetViews>
@@ -6993,7 +7236,7 @@
   <dimension ref="A1:B214"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A153" sqref="A153:B161"/>
+      <selection activeCell="A201" sqref="A201:B214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8218,7 +8461,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="153" spans="1:2">
+    <row r="153" spans="1:2" hidden="1">
       <c r="A153" s="1" t="s">
         <v>167</v>
       </c>
@@ -8226,7 +8469,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="154" spans="1:2">
+    <row r="154" spans="1:2" hidden="1">
       <c r="A154" s="1" t="s">
         <v>167</v>
       </c>
@@ -8234,7 +8477,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="155" spans="1:2">
+    <row r="155" spans="1:2" hidden="1">
       <c r="A155" s="1" t="s">
         <v>167</v>
       </c>
@@ -8242,7 +8485,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="156" spans="1:2">
+    <row r="156" spans="1:2" hidden="1">
       <c r="A156" s="1" t="s">
         <v>167</v>
       </c>
@@ -8250,7 +8493,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="157" spans="1:2">
+    <row r="157" spans="1:2" hidden="1">
       <c r="A157" s="1" t="s">
         <v>167</v>
       </c>
@@ -8258,7 +8501,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="158" spans="1:2">
+    <row r="158" spans="1:2" hidden="1">
       <c r="A158" s="1" t="s">
         <v>167</v>
       </c>
@@ -8266,7 +8509,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="159" spans="1:2">
+    <row r="159" spans="1:2" hidden="1">
       <c r="A159" s="1" t="s">
         <v>167</v>
       </c>
@@ -8274,7 +8517,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="160" spans="1:2">
+    <row r="160" spans="1:2" hidden="1">
       <c r="A160" s="1" t="s">
         <v>167</v>
       </c>
@@ -8282,7 +8525,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="161" spans="1:2">
+    <row r="161" spans="1:2" hidden="1">
       <c r="A161" s="1" t="s">
         <v>167</v>
       </c>
@@ -8602,7 +8845,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="201" spans="1:2" hidden="1">
+    <row r="201" spans="1:2">
       <c r="A201" s="1" t="s">
         <v>198</v>
       </c>
@@ -8610,7 +8853,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="202" spans="1:2" hidden="1">
+    <row r="202" spans="1:2">
       <c r="A202" s="1" t="s">
         <v>198</v>
       </c>
@@ -8618,7 +8861,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="203" spans="1:2" hidden="1">
+    <row r="203" spans="1:2">
       <c r="A203" s="1" t="s">
         <v>198</v>
       </c>
@@ -8626,7 +8869,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="204" spans="1:2" hidden="1">
+    <row r="204" spans="1:2">
       <c r="A204" s="1" t="s">
         <v>198</v>
       </c>
@@ -8634,7 +8877,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="205" spans="1:2" hidden="1">
+    <row r="205" spans="1:2">
       <c r="A205" s="1" t="s">
         <v>198</v>
       </c>
@@ -8642,7 +8885,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="206" spans="1:2" hidden="1">
+    <row r="206" spans="1:2">
       <c r="A206" s="1" t="s">
         <v>198</v>
       </c>
@@ -8650,7 +8893,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="207" spans="1:2" hidden="1">
+    <row r="207" spans="1:2">
       <c r="A207" s="1" t="s">
         <v>198</v>
       </c>
@@ -8658,7 +8901,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="208" spans="1:2" hidden="1">
+    <row r="208" spans="1:2">
       <c r="A208" s="1" t="s">
         <v>198</v>
       </c>
@@ -8666,7 +8909,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="209" spans="1:2" hidden="1">
+    <row r="209" spans="1:2">
       <c r="A209" s="1" t="s">
         <v>198</v>
       </c>
@@ -8674,7 +8917,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="210" spans="1:2" hidden="1">
+    <row r="210" spans="1:2">
       <c r="A210" s="1" t="s">
         <v>198</v>
       </c>
@@ -8682,7 +8925,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="211" spans="1:2" hidden="1">
+    <row r="211" spans="1:2">
       <c r="A211" s="1" t="s">
         <v>198</v>
       </c>
@@ -8690,7 +8933,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="212" spans="1:2" hidden="1">
+    <row r="212" spans="1:2">
       <c r="A212" s="1" t="s">
         <v>198</v>
       </c>
@@ -8698,7 +8941,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="213" spans="1:2" hidden="1">
+    <row r="213" spans="1:2">
       <c r="A213" s="1" t="s">
         <v>198</v>
       </c>
@@ -8706,7 +8949,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="214" spans="1:2" hidden="1">
+    <row r="214" spans="1:2">
       <c r="A214" s="1" t="s">
         <v>198</v>
       </c>
@@ -8718,7 +8961,7 @@
   <autoFilter ref="A1:B214">
     <filterColumn colId="0">
       <filters>
-        <filter val="StandingOrders"/>
+        <filter val="OpportunityActivities"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -8729,11 +8972,9 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:F152"/>
+  <dimension ref="A1:F203"/>
   <sheetViews>
-    <sheetView topLeftCell="A136" workbookViewId="0">
-      <selection activeCell="F144" sqref="F144:F152"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -10583,11 +10824,11 @@
         <v>98</v>
       </c>
       <c r="D115" s="6" t="str">
-        <f t="shared" ref="D115:D152" si="10">A115&amp;"_"&amp;B115&amp;" VARCHAR2(100),"</f>
+        <f t="shared" ref="D115:D178" si="10">A115&amp;"_"&amp;B115&amp;" VARCHAR2(100),"</f>
         <v>Act_letterCode VARCHAR2(100),</v>
       </c>
       <c r="F115" s="6" t="str">
-        <f t="shared" ref="F115:F152" si="11">A115&amp;"_"&amp;B115</f>
+        <f t="shared" ref="F115:F178" si="11">A115&amp;"_"&amp;B115</f>
         <v>Act_letterCode</v>
       </c>
     </row>
@@ -11181,6 +11422,822 @@
       <c r="F152" s="6" t="str">
         <f t="shared" si="11"/>
         <v>SO_startDate</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6">
+      <c r="A153" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D153" s="6" t="str">
+        <f t="shared" si="10"/>
+        <v>Pinfo_codeLevel1 VARCHAR2(100),</v>
+      </c>
+      <c r="F153" s="6" t="str">
+        <f t="shared" si="11"/>
+        <v>Pinfo_codeLevel1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6">
+      <c r="A154" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D154" s="6" t="str">
+        <f t="shared" si="10"/>
+        <v>Pinfo_codeLevel2 VARCHAR2(100),</v>
+      </c>
+      <c r="F154" s="6" t="str">
+        <f t="shared" si="11"/>
+        <v>Pinfo_codeLevel2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6">
+      <c r="A155" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D155" s="6" t="str">
+        <f t="shared" si="10"/>
+        <v>Pinfo_source VARCHAR2(100),</v>
+      </c>
+      <c r="F155" s="6" t="str">
+        <f t="shared" si="11"/>
+        <v>Pinfo_source</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6">
+      <c r="A156" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D156" s="6" t="str">
+        <f t="shared" si="10"/>
+        <v>Pinfo_comments VARCHAR2(100),</v>
+      </c>
+      <c r="F156" s="6" t="str">
+        <f t="shared" si="11"/>
+        <v>Pinfo_comments</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6">
+      <c r="A157" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D157" s="6" t="str">
+        <f t="shared" si="10"/>
+        <v>Pinfo_startDate VARCHAR2(100),</v>
+      </c>
+      <c r="F157" s="6" t="str">
+        <f t="shared" si="11"/>
+        <v>Pinfo_startDate</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6">
+      <c r="A158" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D158" s="6" t="str">
+        <f t="shared" si="10"/>
+        <v>Pinfo_endDate VARCHAR2(100),</v>
+      </c>
+      <c r="F158" s="6" t="str">
+        <f t="shared" si="11"/>
+        <v>Pinfo_endDate</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6">
+      <c r="A159" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D159" s="6" t="str">
+        <f t="shared" si="10"/>
+        <v>Pinfo_siebelAttribute1 VARCHAR2(100),</v>
+      </c>
+      <c r="F159" s="6" t="str">
+        <f t="shared" si="11"/>
+        <v>Pinfo_siebelAttribute1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6">
+      <c r="A160" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D160" s="6" t="str">
+        <f t="shared" si="10"/>
+        <v>Pinfo_siebelAttribute6 VARCHAR2(100),</v>
+      </c>
+      <c r="F160" s="6" t="str">
+        <f t="shared" si="11"/>
+        <v>Pinfo_siebelAttribute6</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6">
+      <c r="A161" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D161" s="6" t="str">
+        <f t="shared" si="10"/>
+        <v>Oppty_dataSource VARCHAR2(100),</v>
+      </c>
+      <c r="F161" s="6" t="str">
+        <f t="shared" si="11"/>
+        <v>Oppty_dataSource</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6">
+      <c r="A162" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D162" s="6" t="str">
+        <f t="shared" si="10"/>
+        <v>Oppty_crukReference VARCHAR2(100),</v>
+      </c>
+      <c r="F162" s="6" t="str">
+        <f t="shared" si="11"/>
+        <v>Oppty_crukReference</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6">
+      <c r="A163" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D163" s="6" t="str">
+        <f>A163&amp;"_"&amp;B163&amp;" VARCHAR2(100),"</f>
+        <v>Oppty_externalReference VARCHAR2(100),</v>
+      </c>
+      <c r="F163" s="6" t="str">
+        <f>A163&amp;"_"&amp;B163</f>
+        <v>Oppty_externalReference</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6">
+      <c r="A164" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D164" s="6" t="str">
+        <f t="shared" si="10"/>
+        <v>Oppty_department VARCHAR2(100),</v>
+      </c>
+      <c r="F164" s="6" t="str">
+        <f t="shared" si="11"/>
+        <v>Oppty_department</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6">
+      <c r="A165" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D165" s="6" t="str">
+        <f t="shared" si="10"/>
+        <v>Oppty_journey VARCHAR2(100),</v>
+      </c>
+      <c r="F165" s="6" t="str">
+        <f t="shared" si="11"/>
+        <v>Oppty_journey</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6">
+      <c r="A166" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D166" s="6" t="str">
+        <f t="shared" si="10"/>
+        <v>Oppty_stage VARCHAR2(100),</v>
+      </c>
+      <c r="F166" s="6" t="str">
+        <f t="shared" si="11"/>
+        <v>Oppty_stage</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6">
+      <c r="A167" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D167" s="6" t="str">
+        <f t="shared" si="10"/>
+        <v>Oppty_source VARCHAR2(100),</v>
+      </c>
+      <c r="F167" s="6" t="str">
+        <f t="shared" si="11"/>
+        <v>Oppty_source</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6">
+      <c r="A168" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D168" s="6" t="str">
+        <f t="shared" si="10"/>
+        <v>Oppty_startDate VARCHAR2(100),</v>
+      </c>
+      <c r="F168" s="6" t="str">
+        <f t="shared" si="11"/>
+        <v>Oppty_startDate</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6">
+      <c r="A169" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D169" s="6" t="str">
+        <f t="shared" si="10"/>
+        <v>Oppty_description VARCHAR2(100),</v>
+      </c>
+      <c r="F169" s="6" t="str">
+        <f t="shared" si="11"/>
+        <v>Oppty_description</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6">
+      <c r="A170" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D170" s="6" t="str">
+        <f t="shared" si="10"/>
+        <v>Oppty_likelihood VARCHAR2(100),</v>
+      </c>
+      <c r="F170" s="6" t="str">
+        <f t="shared" si="11"/>
+        <v>Oppty_likelihood</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6">
+      <c r="A171" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D171" s="6" t="str">
+        <f t="shared" si="10"/>
+        <v>Oppty_currency VARCHAR2(100),</v>
+      </c>
+      <c r="F171" s="6" t="str">
+        <f t="shared" si="11"/>
+        <v>Oppty_currency</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6">
+      <c r="A172" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D172" s="6" t="str">
+        <f t="shared" si="10"/>
+        <v>Oppty_status VARCHAR2(100),</v>
+      </c>
+      <c r="F172" s="6" t="str">
+        <f t="shared" si="11"/>
+        <v>Oppty_status</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6">
+      <c r="A173" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D173" s="6" t="str">
+        <f t="shared" si="10"/>
+        <v>Oppty_endDate VARCHAR2(100),</v>
+      </c>
+      <c r="F173" s="6" t="str">
+        <f t="shared" si="11"/>
+        <v>Oppty_endDate</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6">
+      <c r="A174" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D174" s="6" t="str">
+        <f t="shared" si="10"/>
+        <v>Oppty_reasonForClosure VARCHAR2(100),</v>
+      </c>
+      <c r="F174" s="6" t="str">
+        <f t="shared" si="11"/>
+        <v>Oppty_reasonForClosure</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6">
+      <c r="A175" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D175" s="6" t="str">
+        <f t="shared" si="10"/>
+        <v>Oppty_closureSummary VARCHAR2(100),</v>
+      </c>
+      <c r="F175" s="6" t="str">
+        <f t="shared" si="11"/>
+        <v>Oppty_closureSummary</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6">
+      <c r="A176" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D176" s="6" t="str">
+        <f t="shared" si="10"/>
+        <v>OpptyProd_crukReference VARCHAR2(100),</v>
+      </c>
+      <c r="F176" s="6" t="str">
+        <f t="shared" si="11"/>
+        <v>OpptyProd_crukReference</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6">
+      <c r="A177" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D177" s="6" t="str">
+        <f t="shared" si="10"/>
+        <v>OpptyProd_externalReference VARCHAR2(100),</v>
+      </c>
+      <c r="F177" s="6" t="str">
+        <f t="shared" si="11"/>
+        <v>OpptyProd_externalReference</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6">
+      <c r="A178" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D178" s="6" t="str">
+        <f t="shared" si="10"/>
+        <v>OpptyProd_dataSource VARCHAR2(100),</v>
+      </c>
+      <c r="F178" s="6" t="str">
+        <f t="shared" si="11"/>
+        <v>OpptyProd_dataSource</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6">
+      <c r="A179" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D179" s="6" t="str">
+        <f t="shared" ref="D179:D203" si="12">A179&amp;"_"&amp;B179&amp;" VARCHAR2(100),"</f>
+        <v>OpptyProd_productCode VARCHAR2(100),</v>
+      </c>
+      <c r="F179" s="6" t="str">
+        <f t="shared" ref="F179:F203" si="13">A179&amp;"_"&amp;B179</f>
+        <v>OpptyProd_productCode</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6">
+      <c r="A180" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D180" s="6" t="str">
+        <f t="shared" si="12"/>
+        <v>OpptyProd_targetAmount VARCHAR2(100),</v>
+      </c>
+      <c r="F180" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v>OpptyProd_targetAmount</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6">
+      <c r="A181" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D181" s="6" t="str">
+        <f t="shared" si="12"/>
+        <v>OpptyProd_askAmount VARCHAR2(100),</v>
+      </c>
+      <c r="F181" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v>OpptyProd_askAmount</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6">
+      <c r="A182" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D182" s="6" t="str">
+        <f t="shared" si="12"/>
+        <v>OpptyProd_askDate VARCHAR2(100),</v>
+      </c>
+      <c r="F182" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v>OpptyProd_askDate</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6">
+      <c r="A183" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D183" s="6" t="str">
+        <f t="shared" si="12"/>
+        <v>OpptyProd_percentage VARCHAR2(100),</v>
+      </c>
+      <c r="F183" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v>OpptyProd_percentage</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6">
+      <c r="A184" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D184" s="6" t="str">
+        <f t="shared" si="12"/>
+        <v>OpptyProd_agreedAmount VARCHAR2(100),</v>
+      </c>
+      <c r="F184" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v>OpptyProd_agreedAmount</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6">
+      <c r="A185" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D185" s="6" t="str">
+        <f t="shared" si="12"/>
+        <v>OpptyProd_expectedDate VARCHAR2(100),</v>
+      </c>
+      <c r="F185" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v>OpptyProd_expectedDate</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6">
+      <c r="A186" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D186" s="6" t="str">
+        <f t="shared" si="12"/>
+        <v>OpptyProd_notes VARCHAR2(100),</v>
+      </c>
+      <c r="F186" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v>OpptyProd_notes</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6">
+      <c r="A187" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D187" s="6" t="str">
+        <f t="shared" si="12"/>
+        <v>OpptyProd_resCode VARCHAR2(100),</v>
+      </c>
+      <c r="F187" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v>OpptyProd_resCode</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6">
+      <c r="A188" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D188" s="6" t="str">
+        <f t="shared" si="12"/>
+        <v>OpptyProd_motivation VARCHAR2(100),</v>
+      </c>
+      <c r="F188" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v>OpptyProd_motivation</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6">
+      <c r="A189" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D189" s="6" t="str">
+        <f t="shared" si="12"/>
+        <v>OpptyProd_inMemoryName VARCHAR2(100),</v>
+      </c>
+      <c r="F189" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v>OpptyProd_inMemoryName</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6">
+      <c r="A190" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D190" s="6" t="str">
+        <f t="shared" si="12"/>
+        <v>OpptyAct_crukReference VARCHAR2(100),</v>
+      </c>
+      <c r="F190" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v>OpptyAct_crukReference</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6">
+      <c r="A191" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D191" s="6" t="str">
+        <f t="shared" si="12"/>
+        <v>OpptyAct_externalReference VARCHAR2(100),</v>
+      </c>
+      <c r="F191" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v>OpptyAct_externalReference</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6">
+      <c r="A192" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D192" s="6" t="str">
+        <f t="shared" si="12"/>
+        <v>OpptyAct_dataSource VARCHAR2(100),</v>
+      </c>
+      <c r="F192" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v>OpptyAct_dataSource</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6">
+      <c r="A193" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D193" s="6" t="str">
+        <f t="shared" si="12"/>
+        <v>OpptyAct_type VARCHAR2(100),</v>
+      </c>
+      <c r="F193" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v>OpptyAct_type</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6">
+      <c r="A194" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D194" s="6" t="str">
+        <f t="shared" si="12"/>
+        <v>OpptyAct_subType VARCHAR2(100),</v>
+      </c>
+      <c r="F194" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v>OpptyAct_subType</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6">
+      <c r="A195" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D195" s="6" t="str">
+        <f t="shared" si="12"/>
+        <v>OpptyAct_category VARCHAR2(100),</v>
+      </c>
+      <c r="F195" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v>OpptyAct_category</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6">
+      <c r="A196" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D196" s="6" t="str">
+        <f t="shared" si="12"/>
+        <v>OpptyAct_subCategory VARCHAR2(100),</v>
+      </c>
+      <c r="F196" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v>OpptyAct_subCategory</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6">
+      <c r="A197" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D197" s="6" t="str">
+        <f t="shared" si="12"/>
+        <v>OpptyAct_description VARCHAR2(100),</v>
+      </c>
+      <c r="F197" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v>OpptyAct_description</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6">
+      <c r="A198" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D198" s="6" t="str">
+        <f t="shared" si="12"/>
+        <v>OpptyAct_comments VARCHAR2(100),</v>
+      </c>
+      <c r="F198" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v>OpptyAct_comments</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6">
+      <c r="A199" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D199" s="6" t="str">
+        <f t="shared" si="12"/>
+        <v>OpptyAct_completedDate VARCHAR2(100),</v>
+      </c>
+      <c r="F199" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v>OpptyAct_completedDate</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6">
+      <c r="A200" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D200" s="6" t="str">
+        <f t="shared" si="12"/>
+        <v>OpptyAct_status VARCHAR2(100),</v>
+      </c>
+      <c r="F200" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v>OpptyAct_status</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6">
+      <c r="A201" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D201" s="6" t="str">
+        <f t="shared" si="12"/>
+        <v>OpptyAct_startDate VARCHAR2(100),</v>
+      </c>
+      <c r="F201" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v>OpptyAct_startDate</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6">
+      <c r="A202" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D202" s="6" t="str">
+        <f t="shared" si="12"/>
+        <v>OpptyAct_endDate VARCHAR2(100),</v>
+      </c>
+      <c r="F202" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v>OpptyAct_endDate</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6">
+      <c r="A203" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D203" s="6" t="str">
+        <f t="shared" si="12"/>
+        <v>OpptyAct_source VARCHAR2(100),</v>
+      </c>
+      <c r="F203" s="6" t="str">
+        <f t="shared" si="13"/>
+        <v>OpptyAct_source</v>
       </c>
     </row>
   </sheetData>
@@ -11192,10 +12249,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:F147"/>
+  <dimension ref="A1:F198"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A135" sqref="A135"/>
+    <sheetView topLeftCell="A70" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B95" sqref="B95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11307,11 +12364,11 @@
         <v>222</v>
       </c>
       <c r="D6" t="s">
-        <v>225</v>
+        <v>530</v>
       </c>
       <c r="F6" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> insert into DI_REF_DATA values ('Supporter','SUPP_startDate','2015-01-17T13:11:20');</v>
+        <v xml:space="preserve"> insert into DI_REF_DATA values ('Supporter','SUPP_startDate','2011-01-17T13:11:20');</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -11342,12 +12399,12 @@
       <c r="C8" t="s">
         <v>222</v>
       </c>
-      <c r="D8" t="s">
-        <v>225</v>
+      <c r="D8" s="1" t="s">
+        <v>233</v>
       </c>
       <c r="F8" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> insert into DI_REF_DATA values ('Supporter','SUPP_statusDate','2015-01-17T13:11:20');</v>
+        <v xml:space="preserve"> insert into DI_REF_DATA values ('Supporter','SUPP_statusDate','2015-01-17');</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -11432,12 +12489,12 @@
       <c r="C13" t="s">
         <v>222</v>
       </c>
-      <c r="D13" t="s">
-        <v>225</v>
+      <c r="D13" s="1" t="s">
+        <v>233</v>
       </c>
       <c r="F13" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> insert into DI_REF_DATA values ('Supporter','SUPP_nonTaxPayerStartDate','2015-01-17T13:11:20');</v>
+        <v xml:space="preserve"> insert into DI_REF_DATA values ('Supporter','SUPP_nonTaxPayerStartDate','2015-01-17');</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -11450,12 +12507,12 @@
       <c r="C14" t="s">
         <v>222</v>
       </c>
-      <c r="D14" t="s">
-        <v>225</v>
+      <c r="D14" s="1" t="s">
+        <v>233</v>
       </c>
       <c r="F14" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> insert into DI_REF_DATA values ('Supporter','SUPP_dateOfDeath','2015-01-17T13:11:20');</v>
+        <v xml:space="preserve"> insert into DI_REF_DATA values ('Supporter','SUPP_dateOfDeath','2015-01-17');</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -11468,12 +12525,12 @@
       <c r="C15" t="s">
         <v>222</v>
       </c>
-      <c r="D15" t="s">
-        <v>225</v>
+      <c r="D15" s="1" t="s">
+        <v>233</v>
       </c>
       <c r="F15" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> insert into DI_REF_DATA values ('Supporter','SUPP_deathNotificationDate','2015-01-17T13:11:20');</v>
+        <v xml:space="preserve"> insert into DI_REF_DATA values ('Supporter','SUPP_deathNotificationDate','2015-01-17');</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -13508,7 +14565,7 @@
         <v>410</v>
       </c>
       <c r="F130" s="8" t="str">
-        <f t="shared" ref="F130:F147" si="2">" insert into DI_REF_DATA values ('"&amp;A130&amp;"','"&amp;B130&amp;"','"&amp;D130&amp;"');"</f>
+        <f t="shared" ref="F130:F193" si="2">" insert into DI_REF_DATA values ('"&amp;A130&amp;"','"&amp;B130&amp;"','"&amp;D130&amp;"');"</f>
         <v xml:space="preserve"> insert into DI_REF_DATA values ('EVT','EVT_runningNumber','');</v>
       </c>
     </row>
@@ -13810,6 +14867,885 @@
       <c r="F147" s="6" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> insert into DI_REF_DATA values ('SO','SO_startDate','2020-12-08');</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6">
+      <c r="A148" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="B148" t="s">
+        <v>451</v>
+      </c>
+      <c r="C148" t="s">
+        <v>222</v>
+      </c>
+      <c r="D148" t="s">
+        <v>459</v>
+      </c>
+      <c r="F148" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> insert into DI_REF_DATA values ('Pinfo','Pinfo_codeLevel1','L10CH3');</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6">
+      <c r="A149" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="B149" t="s">
+        <v>452</v>
+      </c>
+      <c r="C149" t="s">
+        <v>222</v>
+      </c>
+      <c r="D149" t="s">
+        <v>460</v>
+      </c>
+      <c r="F149" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> insert into DI_REF_DATA values ('Pinfo','Pinfo_codeLevel2','NEV');</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6">
+      <c r="A150" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="B150" t="s">
+        <v>453</v>
+      </c>
+      <c r="C150" t="s">
+        <v>222</v>
+      </c>
+      <c r="D150" t="s">
+        <v>228</v>
+      </c>
+      <c r="F150" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> insert into DI_REF_DATA values ('Pinfo','Pinfo_source','E13DM1001');</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6">
+      <c r="A151" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="B151" t="s">
+        <v>454</v>
+      </c>
+      <c r="C151" t="s">
+        <v>222</v>
+      </c>
+      <c r="D151" t="s">
+        <v>461</v>
+      </c>
+      <c r="F151" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> insert into DI_REF_DATA values ('Pinfo','Pinfo_comments','LEG INT PF LOV');</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6">
+      <c r="A152" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="B152" t="s">
+        <v>455</v>
+      </c>
+      <c r="C152" t="s">
+        <v>222</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="F152" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> insert into DI_REF_DATA values ('Pinfo','Pinfo_startDate','2020-12-08');</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6">
+      <c r="A153" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="B153" t="s">
+        <v>456</v>
+      </c>
+      <c r="C153" t="s">
+        <v>222</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="F153" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> insert into DI_REF_DATA values ('Pinfo','Pinfo_endDate','2030-12-08');</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6">
+      <c r="A154" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="B154" t="s">
+        <v>457</v>
+      </c>
+      <c r="C154" t="s">
+        <v>222</v>
+      </c>
+      <c r="D154" t="s">
+        <v>462</v>
+      </c>
+      <c r="F154" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> insert into DI_REF_DATA values ('Pinfo','Pinfo_siebelAttribute1','DI Test');</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6">
+      <c r="A155" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="B155" t="s">
+        <v>458</v>
+      </c>
+      <c r="C155" t="s">
+        <v>222</v>
+      </c>
+      <c r="D155">
+        <v>100</v>
+      </c>
+      <c r="F155" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> insert into DI_REF_DATA values ('Pinfo','Pinfo_siebelAttribute6','100');</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6">
+      <c r="A156" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="B156" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="C156" t="s">
+        <v>222</v>
+      </c>
+      <c r="D156" t="s">
+        <v>479</v>
+      </c>
+      <c r="F156" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> insert into DI_REF_DATA values ('Oppty','Oppty_dataSource','PGMS');</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6">
+      <c r="A157" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="B157" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="F157" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> insert into DI_REF_DATA values ('Oppty','Oppty_crukReference','');</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6">
+      <c r="A158" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="B158" s="6" t="s">
+        <v>474</v>
+      </c>
+      <c r="F158" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> insert into DI_REF_DATA values ('Oppty','Oppty_externalReference','');</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6">
+      <c r="A159" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="B159" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="C159" t="s">
+        <v>222</v>
+      </c>
+      <c r="D159" t="s">
+        <v>480</v>
+      </c>
+      <c r="F159" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> insert into DI_REF_DATA values ('Oppty','Oppty_department','MG&amp;amp;A');</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6">
+      <c r="A160" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="B160" s="6" t="s">
+        <v>467</v>
+      </c>
+      <c r="C160" t="s">
+        <v>222</v>
+      </c>
+      <c r="D160" t="s">
+        <v>481</v>
+      </c>
+      <c r="F160" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> insert into DI_REF_DATA values ('Oppty','Oppty_journey','MG&amp;amp;A Journey');</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6">
+      <c r="A161" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="B161" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="C161" t="s">
+        <v>222</v>
+      </c>
+      <c r="D161" t="s">
+        <v>482</v>
+      </c>
+      <c r="F161" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> insert into DI_REF_DATA values ('Oppty','Oppty_stage','1 - Identify');</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6">
+      <c r="A162" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="B162" s="6" t="s">
+        <v>469</v>
+      </c>
+      <c r="C162" t="s">
+        <v>222</v>
+      </c>
+      <c r="D162" t="s">
+        <v>228</v>
+      </c>
+      <c r="F162" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> insert into DI_REF_DATA values ('Oppty','Oppty_source','E13DM1001');</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6">
+      <c r="A163" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="B163" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="C163" t="s">
+        <v>222</v>
+      </c>
+      <c r="D163" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="F163" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> insert into DI_REF_DATA values ('Oppty','Oppty_startDate','2020-12-08');</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6">
+      <c r="A164" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="B164" s="6" t="s">
+        <v>471</v>
+      </c>
+      <c r="C164" t="s">
+        <v>222</v>
+      </c>
+      <c r="D164" t="s">
+        <v>483</v>
+      </c>
+      <c r="F164" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> insert into DI_REF_DATA values ('Oppty','Oppty_description','This is DI Test description ');</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6">
+      <c r="A165" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="B165" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="C165" t="s">
+        <v>222</v>
+      </c>
+      <c r="D165" t="s">
+        <v>484</v>
+      </c>
+      <c r="F165" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> insert into DI_REF_DATA values ('Oppty','Oppty_likelihood','Low');</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6">
+      <c r="A166" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="B166" s="6" t="s">
+        <v>473</v>
+      </c>
+      <c r="C166" t="s">
+        <v>222</v>
+      </c>
+      <c r="D166" t="s">
+        <v>485</v>
+      </c>
+      <c r="F166" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> insert into DI_REF_DATA values ('Oppty','Oppty_currency','GBP');</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6">
+      <c r="A167" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="B167" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="C167" t="s">
+        <v>222</v>
+      </c>
+      <c r="D167" t="s">
+        <v>486</v>
+      </c>
+      <c r="F167" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> insert into DI_REF_DATA values ('Oppty','Oppty_status','Active');</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6">
+      <c r="A168" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="B168" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="C168" t="s">
+        <v>222</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="F168" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> insert into DI_REF_DATA values ('Oppty','Oppty_endDate','2030-12-08');</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6">
+      <c r="A169" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="B169" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="C169" t="s">
+        <v>222</v>
+      </c>
+      <c r="D169" t="s">
+        <v>487</v>
+      </c>
+      <c r="F169" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> insert into DI_REF_DATA values ('Oppty','Oppty_reasonForClosure','Test Closure');</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6">
+      <c r="A170" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="B170" s="6" t="s">
+        <v>478</v>
+      </c>
+      <c r="C170" t="s">
+        <v>222</v>
+      </c>
+      <c r="D170" t="s">
+        <v>488</v>
+      </c>
+      <c r="F170" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> insert into DI_REF_DATA values ('Oppty','Oppty_closureSummary','Test Closure Summary');</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6">
+      <c r="A171" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="B171" t="s">
+        <v>490</v>
+      </c>
+      <c r="F171" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> insert into DI_REF_DATA values ('OpptyProd','OpptyProd_crukReference','');</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6">
+      <c r="A172" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="B172" t="s">
+        <v>491</v>
+      </c>
+      <c r="F172" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> insert into DI_REF_DATA values ('OpptyProd','OpptyProd_externalReference','');</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6">
+      <c r="A173" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="B173" t="s">
+        <v>492</v>
+      </c>
+      <c r="C173" t="s">
+        <v>222</v>
+      </c>
+      <c r="D173" t="s">
+        <v>479</v>
+      </c>
+      <c r="F173" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> insert into DI_REF_DATA values ('OpptyProd','OpptyProd_dataSource','PGMS');</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6">
+      <c r="A174" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="B174" t="s">
+        <v>493</v>
+      </c>
+      <c r="C174" t="s">
+        <v>222</v>
+      </c>
+      <c r="D174" t="s">
+        <v>504</v>
+      </c>
+      <c r="F174" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> insert into DI_REF_DATA values ('OpptyProd','OpptyProd_productCode','BMPCOR');</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6">
+      <c r="A175" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="B175" t="s">
+        <v>494</v>
+      </c>
+      <c r="C175" t="s">
+        <v>222</v>
+      </c>
+      <c r="D175">
+        <v>9.99</v>
+      </c>
+      <c r="F175" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> insert into DI_REF_DATA values ('OpptyProd','OpptyProd_targetAmount','9.99');</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6">
+      <c r="A176" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="B176" t="s">
+        <v>495</v>
+      </c>
+      <c r="C176" t="s">
+        <v>222</v>
+      </c>
+      <c r="D176">
+        <v>9.99</v>
+      </c>
+      <c r="F176" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> insert into DI_REF_DATA values ('OpptyProd','OpptyProd_askAmount','9.99');</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6">
+      <c r="A177" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="B177" t="s">
+        <v>496</v>
+      </c>
+      <c r="C177" t="s">
+        <v>222</v>
+      </c>
+      <c r="D177" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="F177" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> insert into DI_REF_DATA values ('OpptyProd','OpptyProd_askDate','2020-12-08');</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6">
+      <c r="A178" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="B178" t="s">
+        <v>497</v>
+      </c>
+      <c r="C178" t="s">
+        <v>222</v>
+      </c>
+      <c r="D178">
+        <v>12.22</v>
+      </c>
+      <c r="F178" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> insert into DI_REF_DATA values ('OpptyProd','OpptyProd_percentage','12.22');</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6">
+      <c r="A179" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="B179" t="s">
+        <v>498</v>
+      </c>
+      <c r="C179" t="s">
+        <v>222</v>
+      </c>
+      <c r="D179">
+        <v>9.99</v>
+      </c>
+      <c r="F179" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> insert into DI_REF_DATA values ('OpptyProd','OpptyProd_agreedAmount','9.99');</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6">
+      <c r="A180" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="B180" t="s">
+        <v>499</v>
+      </c>
+      <c r="C180" t="s">
+        <v>222</v>
+      </c>
+      <c r="D180" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="F180" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> insert into DI_REF_DATA values ('OpptyProd','OpptyProd_expectedDate','2021-12-08');</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6">
+      <c r="A181" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="B181" t="s">
+        <v>500</v>
+      </c>
+      <c r="C181" t="s">
+        <v>222</v>
+      </c>
+      <c r="D181" t="s">
+        <v>506</v>
+      </c>
+      <c r="F181" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> insert into DI_REF_DATA values ('OpptyProd','OpptyProd_notes','DI test');</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6">
+      <c r="A182" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="B182" t="s">
+        <v>501</v>
+      </c>
+      <c r="C182" t="s">
+        <v>222</v>
+      </c>
+      <c r="D182" t="s">
+        <v>320</v>
+      </c>
+      <c r="F182" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> insert into DI_REF_DATA values ('OpptyProd','OpptyProd_resCode','RES003');</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6">
+      <c r="A183" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="B183" t="s">
+        <v>502</v>
+      </c>
+      <c r="C183" t="s">
+        <v>222</v>
+      </c>
+      <c r="D183" t="s">
+        <v>362</v>
+      </c>
+      <c r="F183" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> insert into DI_REF_DATA values ('OpptyProd','OpptyProd_motivation','CEL');</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6">
+      <c r="A184" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="B184" t="s">
+        <v>503</v>
+      </c>
+      <c r="C184" t="s">
+        <v>222</v>
+      </c>
+      <c r="D184" t="s">
+        <v>507</v>
+      </c>
+      <c r="F184" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> insert into DI_REF_DATA values ('OpptyProd','OpptyProd_inMemoryName','Mr Mem Name');</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6">
+      <c r="A185" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="B185" t="s">
+        <v>509</v>
+      </c>
+      <c r="F185" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> insert into DI_REF_DATA values ('OpptyAct','OpptyAct_crukReference','');</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6">
+      <c r="A186" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="B186" t="s">
+        <v>510</v>
+      </c>
+      <c r="F186" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> insert into DI_REF_DATA values ('OpptyAct','OpptyAct_externalReference','');</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6">
+      <c r="A187" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="B187" t="s">
+        <v>511</v>
+      </c>
+      <c r="C187" t="s">
+        <v>222</v>
+      </c>
+      <c r="D187" t="s">
+        <v>479</v>
+      </c>
+      <c r="F187" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> insert into DI_REF_DATA values ('OpptyAct','OpptyAct_dataSource','PGMS');</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6">
+      <c r="A188" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="B188" t="s">
+        <v>512</v>
+      </c>
+      <c r="C188" t="s">
+        <v>222</v>
+      </c>
+      <c r="D188" t="s">
+        <v>523</v>
+      </c>
+      <c r="F188" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> insert into DI_REF_DATA values ('OpptyAct','OpptyAct_type','Meeting');</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6">
+      <c r="A189" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="B189" t="s">
+        <v>513</v>
+      </c>
+      <c r="C189" t="s">
+        <v>222</v>
+      </c>
+      <c r="F189" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> insert into DI_REF_DATA values ('OpptyAct','OpptyAct_subType','');</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6">
+      <c r="A190" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="B190" t="s">
+        <v>514</v>
+      </c>
+      <c r="C190" t="s">
+        <v>222</v>
+      </c>
+      <c r="D190" t="s">
+        <v>524</v>
+      </c>
+      <c r="F190" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> insert into DI_REF_DATA values ('OpptyAct','OpptyAct_category','Donate in Memory');</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6">
+      <c r="A191" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="B191" t="s">
+        <v>515</v>
+      </c>
+      <c r="C191" t="s">
+        <v>222</v>
+      </c>
+      <c r="D191" t="s">
+        <v>525</v>
+      </c>
+      <c r="F191" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> insert into DI_REF_DATA values ('OpptyAct','OpptyAct_subCategory','Acknowledgement Chase');</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6">
+      <c r="A192" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="B192" t="s">
+        <v>516</v>
+      </c>
+      <c r="C192" t="s">
+        <v>222</v>
+      </c>
+      <c r="D192" t="s">
+        <v>526</v>
+      </c>
+      <c r="F192" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> insert into DI_REF_DATA values ('OpptyAct','OpptyAct_description','Test Description');</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6">
+      <c r="A193" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="B193" t="s">
+        <v>517</v>
+      </c>
+      <c r="C193" t="s">
+        <v>222</v>
+      </c>
+      <c r="D193" t="s">
+        <v>527</v>
+      </c>
+      <c r="F193" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> insert into DI_REF_DATA values ('OpptyAct','OpptyAct_comments','Test Comments');</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6">
+      <c r="A194" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="B194" t="s">
+        <v>518</v>
+      </c>
+      <c r="C194" t="s">
+        <v>222</v>
+      </c>
+      <c r="D194" t="s">
+        <v>528</v>
+      </c>
+      <c r="F194" s="6" t="str">
+        <f t="shared" ref="F194:F198" si="3">" insert into DI_REF_DATA values ('"&amp;A194&amp;"','"&amp;B194&amp;"','"&amp;D194&amp;"');"</f>
+        <v xml:space="preserve"> insert into DI_REF_DATA values ('OpptyAct','OpptyAct_completedDate','2018-01-17T13:11:20');</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6">
+      <c r="A195" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="B195" t="s">
+        <v>519</v>
+      </c>
+      <c r="C195" t="s">
+        <v>222</v>
+      </c>
+      <c r="D195" t="s">
+        <v>529</v>
+      </c>
+      <c r="F195" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> insert into DI_REF_DATA values ('OpptyAct','OpptyAct_status','In Progress');</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6">
+      <c r="A196" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="B196" t="s">
+        <v>520</v>
+      </c>
+      <c r="C196" t="s">
+        <v>222</v>
+      </c>
+      <c r="D196" t="s">
+        <v>528</v>
+      </c>
+      <c r="F196" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> insert into DI_REF_DATA values ('OpptyAct','OpptyAct_startDate','2018-01-17T13:11:20');</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6">
+      <c r="A197" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="B197" t="s">
+        <v>521</v>
+      </c>
+      <c r="C197" t="s">
+        <v>222</v>
+      </c>
+      <c r="D197" t="s">
+        <v>528</v>
+      </c>
+      <c r="F197" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> insert into DI_REF_DATA values ('OpptyAct','OpptyAct_endDate','2018-01-17T13:11:20');</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6">
+      <c r="A198" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="B198" t="s">
+        <v>522</v>
+      </c>
+      <c r="C198" t="s">
+        <v>222</v>
+      </c>
+      <c r="D198" t="s">
+        <v>228</v>
+      </c>
+      <c r="F198" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> insert into DI_REF_DATA values ('OpptyAct','OpptyAct_source','E13DM1001');</v>
       </c>
     </row>
   </sheetData>
@@ -13824,10 +15760,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:B152"/>
+  <dimension ref="A1:B203"/>
   <sheetViews>
-    <sheetView topLeftCell="A132" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B156" sqref="B156"/>
+    <sheetView topLeftCell="A176" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B194" sqref="B194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -15002,7 +16938,7 @@
         <v>405</v>
       </c>
       <c r="B130" s="5" t="str">
-        <f t="shared" ref="B130:B152" si="2">"generate(case when "&amp;A130&amp;" ='Y' then (select type from DI_REF_TEST_AUTOMATE au where au.test_id=e.test_id and field='"&amp;A130&amp;"' ) else '' end,'"&amp;A130&amp;"' ) "&amp;A130&amp;" ,"</f>
+        <f t="shared" ref="B130:B193" si="2">"generate(case when "&amp;A130&amp;" ='Y' then (select type from DI_REF_TEST_AUTOMATE au where au.test_id=e.test_id and field='"&amp;A130&amp;"' ) else '' end,'"&amp;A130&amp;"' ) "&amp;A130&amp;" ,"</f>
         <v>generate(case when EVT_pledgeAmount ='Y' then (select type from DI_REF_TEST_AUTOMATE au where au.test_id=e.test_id and field='EVT_pledgeAmount' ) else '' end,'EVT_pledgeAmount' ) EVT_pledgeAmount ,</v>
       </c>
     </row>
@@ -15202,6 +17138,465 @@
       <c r="B152" s="5" t="str">
         <f t="shared" si="2"/>
         <v>generate(case when SO_startDate ='Y' then (select type from DI_REF_TEST_AUTOMATE au where au.test_id=e.test_id and field='SO_startDate' ) else '' end,'SO_startDate' ) SO_startDate ,</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153" t="s">
+        <v>451</v>
+      </c>
+      <c r="B153" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>generate(case when Pinfo_codeLevel1 ='Y' then (select type from DI_REF_TEST_AUTOMATE au where au.test_id=e.test_id and field='Pinfo_codeLevel1' ) else '' end,'Pinfo_codeLevel1' ) Pinfo_codeLevel1 ,</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154" t="s">
+        <v>452</v>
+      </c>
+      <c r="B154" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>generate(case when Pinfo_codeLevel2 ='Y' then (select type from DI_REF_TEST_AUTOMATE au where au.test_id=e.test_id and field='Pinfo_codeLevel2' ) else '' end,'Pinfo_codeLevel2' ) Pinfo_codeLevel2 ,</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155" t="s">
+        <v>453</v>
+      </c>
+      <c r="B155" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>generate(case when Pinfo_source ='Y' then (select type from DI_REF_TEST_AUTOMATE au where au.test_id=e.test_id and field='Pinfo_source' ) else '' end,'Pinfo_source' ) Pinfo_source ,</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156" t="s">
+        <v>454</v>
+      </c>
+      <c r="B156" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>generate(case when Pinfo_comments ='Y' then (select type from DI_REF_TEST_AUTOMATE au where au.test_id=e.test_id and field='Pinfo_comments' ) else '' end,'Pinfo_comments' ) Pinfo_comments ,</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157" t="s">
+        <v>455</v>
+      </c>
+      <c r="B157" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>generate(case when Pinfo_startDate ='Y' then (select type from DI_REF_TEST_AUTOMATE au where au.test_id=e.test_id and field='Pinfo_startDate' ) else '' end,'Pinfo_startDate' ) Pinfo_startDate ,</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158" t="s">
+        <v>456</v>
+      </c>
+      <c r="B158" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>generate(case when Pinfo_endDate ='Y' then (select type from DI_REF_TEST_AUTOMATE au where au.test_id=e.test_id and field='Pinfo_endDate' ) else '' end,'Pinfo_endDate' ) Pinfo_endDate ,</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159" t="s">
+        <v>457</v>
+      </c>
+      <c r="B159" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>generate(case when Pinfo_siebelAttribute1 ='Y' then (select type from DI_REF_TEST_AUTOMATE au where au.test_id=e.test_id and field='Pinfo_siebelAttribute1' ) else '' end,'Pinfo_siebelAttribute1' ) Pinfo_siebelAttribute1 ,</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160" t="s">
+        <v>458</v>
+      </c>
+      <c r="B160" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>generate(case when Pinfo_siebelAttribute6 ='Y' then (select type from DI_REF_TEST_AUTOMATE au where au.test_id=e.test_id and field='Pinfo_siebelAttribute6' ) else '' end,'Pinfo_siebelAttribute6' ) Pinfo_siebelAttribute6 ,</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161" t="s">
+        <v>464</v>
+      </c>
+      <c r="B161" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>generate(case when Oppty_dataSource ='Y' then (select type from DI_REF_TEST_AUTOMATE au where au.test_id=e.test_id and field='Oppty_dataSource' ) else '' end,'Oppty_dataSource' ) Oppty_dataSource ,</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2">
+      <c r="A162" t="s">
+        <v>465</v>
+      </c>
+      <c r="B162" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>generate(case when Oppty_crukReference ='Y' then (select type from DI_REF_TEST_AUTOMATE au where au.test_id=e.test_id and field='Oppty_crukReference' ) else '' end,'Oppty_crukReference' ) Oppty_crukReference ,</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2">
+      <c r="A163" t="s">
+        <v>474</v>
+      </c>
+      <c r="B163" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>generate(case when Oppty_externalReference ='Y' then (select type from DI_REF_TEST_AUTOMATE au where au.test_id=e.test_id and field='Oppty_externalReference' ) else '' end,'Oppty_externalReference' ) Oppty_externalReference ,</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2">
+      <c r="A164" t="s">
+        <v>466</v>
+      </c>
+      <c r="B164" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>generate(case when Oppty_department ='Y' then (select type from DI_REF_TEST_AUTOMATE au where au.test_id=e.test_id and field='Oppty_department' ) else '' end,'Oppty_department' ) Oppty_department ,</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2">
+      <c r="A165" t="s">
+        <v>467</v>
+      </c>
+      <c r="B165" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>generate(case when Oppty_journey ='Y' then (select type from DI_REF_TEST_AUTOMATE au where au.test_id=e.test_id and field='Oppty_journey' ) else '' end,'Oppty_journey' ) Oppty_journey ,</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2">
+      <c r="A166" t="s">
+        <v>468</v>
+      </c>
+      <c r="B166" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>generate(case when Oppty_stage ='Y' then (select type from DI_REF_TEST_AUTOMATE au where au.test_id=e.test_id and field='Oppty_stage' ) else '' end,'Oppty_stage' ) Oppty_stage ,</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2">
+      <c r="A167" t="s">
+        <v>469</v>
+      </c>
+      <c r="B167" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>generate(case when Oppty_source ='Y' then (select type from DI_REF_TEST_AUTOMATE au where au.test_id=e.test_id and field='Oppty_source' ) else '' end,'Oppty_source' ) Oppty_source ,</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2">
+      <c r="A168" t="s">
+        <v>470</v>
+      </c>
+      <c r="B168" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>generate(case when Oppty_startDate ='Y' then (select type from DI_REF_TEST_AUTOMATE au where au.test_id=e.test_id and field='Oppty_startDate' ) else '' end,'Oppty_startDate' ) Oppty_startDate ,</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2">
+      <c r="A169" t="s">
+        <v>471</v>
+      </c>
+      <c r="B169" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>generate(case when Oppty_description ='Y' then (select type from DI_REF_TEST_AUTOMATE au where au.test_id=e.test_id and field='Oppty_description' ) else '' end,'Oppty_description' ) Oppty_description ,</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2">
+      <c r="A170" t="s">
+        <v>472</v>
+      </c>
+      <c r="B170" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>generate(case when Oppty_likelihood ='Y' then (select type from DI_REF_TEST_AUTOMATE au where au.test_id=e.test_id and field='Oppty_likelihood' ) else '' end,'Oppty_likelihood' ) Oppty_likelihood ,</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2">
+      <c r="A171" t="s">
+        <v>473</v>
+      </c>
+      <c r="B171" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>generate(case when Oppty_currency ='Y' then (select type from DI_REF_TEST_AUTOMATE au where au.test_id=e.test_id and field='Oppty_currency' ) else '' end,'Oppty_currency' ) Oppty_currency ,</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2">
+      <c r="A172" t="s">
+        <v>475</v>
+      </c>
+      <c r="B172" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>generate(case when Oppty_status ='Y' then (select type from DI_REF_TEST_AUTOMATE au where au.test_id=e.test_id and field='Oppty_status' ) else '' end,'Oppty_status' ) Oppty_status ,</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2">
+      <c r="A173" t="s">
+        <v>476</v>
+      </c>
+      <c r="B173" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>generate(case when Oppty_endDate ='Y' then (select type from DI_REF_TEST_AUTOMATE au where au.test_id=e.test_id and field='Oppty_endDate' ) else '' end,'Oppty_endDate' ) Oppty_endDate ,</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2">
+      <c r="A174" t="s">
+        <v>477</v>
+      </c>
+      <c r="B174" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>generate(case when Oppty_reasonForClosure ='Y' then (select type from DI_REF_TEST_AUTOMATE au where au.test_id=e.test_id and field='Oppty_reasonForClosure' ) else '' end,'Oppty_reasonForClosure' ) Oppty_reasonForClosure ,</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2">
+      <c r="A175" t="s">
+        <v>478</v>
+      </c>
+      <c r="B175" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>generate(case when Oppty_closureSummary ='Y' then (select type from DI_REF_TEST_AUTOMATE au where au.test_id=e.test_id and field='Oppty_closureSummary' ) else '' end,'Oppty_closureSummary' ) Oppty_closureSummary ,</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2">
+      <c r="A176" t="s">
+        <v>490</v>
+      </c>
+      <c r="B176" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>generate(case when OpptyProd_crukReference ='Y' then (select type from DI_REF_TEST_AUTOMATE au where au.test_id=e.test_id and field='OpptyProd_crukReference' ) else '' end,'OpptyProd_crukReference' ) OpptyProd_crukReference ,</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2">
+      <c r="A177" t="s">
+        <v>491</v>
+      </c>
+      <c r="B177" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>generate(case when OpptyProd_externalReference ='Y' then (select type from DI_REF_TEST_AUTOMATE au where au.test_id=e.test_id and field='OpptyProd_externalReference' ) else '' end,'OpptyProd_externalReference' ) OpptyProd_externalReference ,</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2">
+      <c r="A178" t="s">
+        <v>492</v>
+      </c>
+      <c r="B178" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>generate(case when OpptyProd_dataSource ='Y' then (select type from DI_REF_TEST_AUTOMATE au where au.test_id=e.test_id and field='OpptyProd_dataSource' ) else '' end,'OpptyProd_dataSource' ) OpptyProd_dataSource ,</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2">
+      <c r="A179" t="s">
+        <v>493</v>
+      </c>
+      <c r="B179" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>generate(case when OpptyProd_productCode ='Y' then (select type from DI_REF_TEST_AUTOMATE au where au.test_id=e.test_id and field='OpptyProd_productCode' ) else '' end,'OpptyProd_productCode' ) OpptyProd_productCode ,</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2">
+      <c r="A180" t="s">
+        <v>494</v>
+      </c>
+      <c r="B180" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>generate(case when OpptyProd_targetAmount ='Y' then (select type from DI_REF_TEST_AUTOMATE au where au.test_id=e.test_id and field='OpptyProd_targetAmount' ) else '' end,'OpptyProd_targetAmount' ) OpptyProd_targetAmount ,</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2">
+      <c r="A181" t="s">
+        <v>495</v>
+      </c>
+      <c r="B181" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>generate(case when OpptyProd_askAmount ='Y' then (select type from DI_REF_TEST_AUTOMATE au where au.test_id=e.test_id and field='OpptyProd_askAmount' ) else '' end,'OpptyProd_askAmount' ) OpptyProd_askAmount ,</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2">
+      <c r="A182" t="s">
+        <v>496</v>
+      </c>
+      <c r="B182" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>generate(case when OpptyProd_askDate ='Y' then (select type from DI_REF_TEST_AUTOMATE au where au.test_id=e.test_id and field='OpptyProd_askDate' ) else '' end,'OpptyProd_askDate' ) OpptyProd_askDate ,</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2">
+      <c r="A183" t="s">
+        <v>497</v>
+      </c>
+      <c r="B183" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>generate(case when OpptyProd_percentage ='Y' then (select type from DI_REF_TEST_AUTOMATE au where au.test_id=e.test_id and field='OpptyProd_percentage' ) else '' end,'OpptyProd_percentage' ) OpptyProd_percentage ,</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2">
+      <c r="A184" t="s">
+        <v>498</v>
+      </c>
+      <c r="B184" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>generate(case when OpptyProd_agreedAmount ='Y' then (select type from DI_REF_TEST_AUTOMATE au where au.test_id=e.test_id and field='OpptyProd_agreedAmount' ) else '' end,'OpptyProd_agreedAmount' ) OpptyProd_agreedAmount ,</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2">
+      <c r="A185" t="s">
+        <v>499</v>
+      </c>
+      <c r="B185" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>generate(case when OpptyProd_expectedDate ='Y' then (select type from DI_REF_TEST_AUTOMATE au where au.test_id=e.test_id and field='OpptyProd_expectedDate' ) else '' end,'OpptyProd_expectedDate' ) OpptyProd_expectedDate ,</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2">
+      <c r="A186" t="s">
+        <v>500</v>
+      </c>
+      <c r="B186" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>generate(case when OpptyProd_notes ='Y' then (select type from DI_REF_TEST_AUTOMATE au where au.test_id=e.test_id and field='OpptyProd_notes' ) else '' end,'OpptyProd_notes' ) OpptyProd_notes ,</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2">
+      <c r="A187" t="s">
+        <v>501</v>
+      </c>
+      <c r="B187" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>generate(case when OpptyProd_resCode ='Y' then (select type from DI_REF_TEST_AUTOMATE au where au.test_id=e.test_id and field='OpptyProd_resCode' ) else '' end,'OpptyProd_resCode' ) OpptyProd_resCode ,</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2">
+      <c r="A188" t="s">
+        <v>502</v>
+      </c>
+      <c r="B188" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>generate(case when OpptyProd_motivation ='Y' then (select type from DI_REF_TEST_AUTOMATE au where au.test_id=e.test_id and field='OpptyProd_motivation' ) else '' end,'OpptyProd_motivation' ) OpptyProd_motivation ,</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2">
+      <c r="A189" t="s">
+        <v>503</v>
+      </c>
+      <c r="B189" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>generate(case when OpptyProd_inMemoryName ='Y' then (select type from DI_REF_TEST_AUTOMATE au where au.test_id=e.test_id and field='OpptyProd_inMemoryName' ) else '' end,'OpptyProd_inMemoryName' ) OpptyProd_inMemoryName ,</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2">
+      <c r="A190" t="s">
+        <v>509</v>
+      </c>
+      <c r="B190" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>generate(case when OpptyAct_crukReference ='Y' then (select type from DI_REF_TEST_AUTOMATE au where au.test_id=e.test_id and field='OpptyAct_crukReference' ) else '' end,'OpptyAct_crukReference' ) OpptyAct_crukReference ,</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2">
+      <c r="A191" t="s">
+        <v>510</v>
+      </c>
+      <c r="B191" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>generate(case when OpptyAct_externalReference ='Y' then (select type from DI_REF_TEST_AUTOMATE au where au.test_id=e.test_id and field='OpptyAct_externalReference' ) else '' end,'OpptyAct_externalReference' ) OpptyAct_externalReference ,</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2">
+      <c r="A192" t="s">
+        <v>511</v>
+      </c>
+      <c r="B192" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>generate(case when OpptyAct_dataSource ='Y' then (select type from DI_REF_TEST_AUTOMATE au where au.test_id=e.test_id and field='OpptyAct_dataSource' ) else '' end,'OpptyAct_dataSource' ) OpptyAct_dataSource ,</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2">
+      <c r="A193" t="s">
+        <v>512</v>
+      </c>
+      <c r="B193" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>generate(case when OpptyAct_type ='Y' then (select type from DI_REF_TEST_AUTOMATE au where au.test_id=e.test_id and field='OpptyAct_type' ) else '' end,'OpptyAct_type' ) OpptyAct_type ,</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2">
+      <c r="A194" t="s">
+        <v>513</v>
+      </c>
+      <c r="B194" s="5" t="str">
+        <f t="shared" ref="B194:B203" si="3">"generate(case when "&amp;A194&amp;" ='Y' then (select type from DI_REF_TEST_AUTOMATE au where au.test_id=e.test_id and field='"&amp;A194&amp;"' ) else '' end,'"&amp;A194&amp;"' ) "&amp;A194&amp;" ,"</f>
+        <v>generate(case when OpptyAct_subType ='Y' then (select type from DI_REF_TEST_AUTOMATE au where au.test_id=e.test_id and field='OpptyAct_subType' ) else '' end,'OpptyAct_subType' ) OpptyAct_subType ,</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2">
+      <c r="A195" t="s">
+        <v>514</v>
+      </c>
+      <c r="B195" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>generate(case when OpptyAct_category ='Y' then (select type from DI_REF_TEST_AUTOMATE au where au.test_id=e.test_id and field='OpptyAct_category' ) else '' end,'OpptyAct_category' ) OpptyAct_category ,</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2">
+      <c r="A196" t="s">
+        <v>515</v>
+      </c>
+      <c r="B196" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>generate(case when OpptyAct_subCategory ='Y' then (select type from DI_REF_TEST_AUTOMATE au where au.test_id=e.test_id and field='OpptyAct_subCategory' ) else '' end,'OpptyAct_subCategory' ) OpptyAct_subCategory ,</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2">
+      <c r="A197" t="s">
+        <v>516</v>
+      </c>
+      <c r="B197" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>generate(case when OpptyAct_description ='Y' then (select type from DI_REF_TEST_AUTOMATE au where au.test_id=e.test_id and field='OpptyAct_description' ) else '' end,'OpptyAct_description' ) OpptyAct_description ,</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2">
+      <c r="A198" t="s">
+        <v>517</v>
+      </c>
+      <c r="B198" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>generate(case when OpptyAct_comments ='Y' then (select type from DI_REF_TEST_AUTOMATE au where au.test_id=e.test_id and field='OpptyAct_comments' ) else '' end,'OpptyAct_comments' ) OpptyAct_comments ,</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2">
+      <c r="A199" t="s">
+        <v>518</v>
+      </c>
+      <c r="B199" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>generate(case when OpptyAct_completedDate ='Y' then (select type from DI_REF_TEST_AUTOMATE au where au.test_id=e.test_id and field='OpptyAct_completedDate' ) else '' end,'OpptyAct_completedDate' ) OpptyAct_completedDate ,</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2">
+      <c r="A200" t="s">
+        <v>519</v>
+      </c>
+      <c r="B200" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>generate(case when OpptyAct_status ='Y' then (select type from DI_REF_TEST_AUTOMATE au where au.test_id=e.test_id and field='OpptyAct_status' ) else '' end,'OpptyAct_status' ) OpptyAct_status ,</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2">
+      <c r="A201" t="s">
+        <v>520</v>
+      </c>
+      <c r="B201" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>generate(case when OpptyAct_startDate ='Y' then (select type from DI_REF_TEST_AUTOMATE au where au.test_id=e.test_id and field='OpptyAct_startDate' ) else '' end,'OpptyAct_startDate' ) OpptyAct_startDate ,</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2">
+      <c r="A202" t="s">
+        <v>521</v>
+      </c>
+      <c r="B202" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>generate(case when OpptyAct_endDate ='Y' then (select type from DI_REF_TEST_AUTOMATE au where au.test_id=e.test_id and field='OpptyAct_endDate' ) else '' end,'OpptyAct_endDate' ) OpptyAct_endDate ,</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2">
+      <c r="A203" t="s">
+        <v>522</v>
+      </c>
+      <c r="B203" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>generate(case when OpptyAct_source ='Y' then (select type from DI_REF_TEST_AUTOMATE au where au.test_id=e.test_id and field='OpptyAct_source' ) else '' end,'OpptyAct_source' ) OpptyAct_source ,</v>
       </c>
     </row>
   </sheetData>

--- a/SQL_Scripts/supp_gen_fields.xlsx
+++ b/SQL_Scripts/supp_gen_fields.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="360" windowWidth="19815" windowHeight="7650" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="360" windowWidth="19815" windowHeight="7650" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Generic_Complete" sheetId="1" r:id="rId1"/>
@@ -8974,7 +8974,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:F203"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -9552,11 +9552,11 @@
         <v>70</v>
       </c>
       <c r="D36" t="str">
-        <f t="shared" ref="D36:D47" si="4">"SEC_ADDR_"&amp;B36&amp;" VARCHAR2(100),"</f>
+        <f t="shared" ref="D36:D46" si="4">"SEC_ADDR_"&amp;B36&amp;" VARCHAR2(100),"</f>
         <v>SEC_ADDR_addressLine2 VARCHAR2(100),</v>
       </c>
       <c r="F36" t="str">
-        <f t="shared" ref="F36:F47" si="5">"SEC_ADDR_"&amp;B36</f>
+        <f t="shared" ref="F36:F46" si="5">"SEC_ADDR_"&amp;B36</f>
         <v>SEC_ADDR_addressLine2</v>
       </c>
     </row>
@@ -9744,11 +9744,11 @@
         <v>84</v>
       </c>
       <c r="D48" t="str">
-        <f t="shared" ref="D48:D57" si="6">"CONINFO_"&amp;B48&amp;" VARCHAR2(100),"</f>
+        <f t="shared" ref="D48:D49" si="6">"CONINFO_"&amp;B48&amp;" VARCHAR2(100),"</f>
         <v>CONINFO_emailAddress VARCHAR2(100),</v>
       </c>
       <c r="F48" t="str">
-        <f t="shared" ref="F48:F50" si="7">"CONINFO_"&amp;B48</f>
+        <f t="shared" ref="F48:F49" si="7">"CONINFO_"&amp;B48</f>
         <v>CONINFO_emailAddress</v>
       </c>
     </row>
@@ -12251,8 +12251,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:F198"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B95" sqref="B95"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F92" sqref="F92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
